--- a/data/trans_orig/P5704-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P5704-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>280180</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>257892</v>
+        <v>259171</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>302261</v>
+        <v>302690</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5913769119691089</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5443332535263666</v>
+        <v>0.5470322772486865</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6379826016286456</v>
+        <v>0.6388875698679278</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>185</v>
@@ -765,19 +765,19 @@
         <v>189587</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>171815</v>
+        <v>171692</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>207289</v>
+        <v>206175</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6181914355096362</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5602420556740224</v>
+        <v>0.5598416751234517</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6759120024078145</v>
+        <v>0.6722810290444183</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>455</v>
@@ -786,19 +786,19 @@
         <v>469768</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>442704</v>
+        <v>440048</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>501304</v>
+        <v>494686</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6019136747393973</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5672369664844673</v>
+        <v>0.5638336633837725</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.642320626443924</v>
+        <v>0.633840837443156</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>139955</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>119883</v>
+        <v>118991</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>162026</v>
+        <v>160577</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2954030057153074</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2530372389786927</v>
+        <v>0.2511537966506079</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3419880797234316</v>
+        <v>0.3389293862089343</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>84</v>
@@ -836,19 +836,19 @@
         <v>85717</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>70343</v>
+        <v>70973</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>101429</v>
+        <v>103096</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.279499689379153</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2293685181866232</v>
+        <v>0.231424302991381</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3307334774484726</v>
+        <v>0.3361676324732031</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>221</v>
@@ -857,19 +857,19 @@
         <v>225672</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>198690</v>
+        <v>201427</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>250721</v>
+        <v>253285</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2891538000845735</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2545811780477691</v>
+        <v>0.2580890690342321</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3212484473856377</v>
+        <v>0.324534217427531</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>40082</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>28550</v>
+        <v>28475</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>53377</v>
+        <v>53623</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.08460050931845697</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.06026103238574367</v>
+        <v>0.06010176530422537</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1126621571552631</v>
+        <v>0.1131825081289485</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>21</v>
@@ -907,19 +907,19 @@
         <v>22197</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>15222</v>
+        <v>13434</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>33196</v>
+        <v>32259</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.07237942186437268</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.04963354436919476</v>
+        <v>0.04380414392843004</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1082431094759111</v>
+        <v>0.1051891157621648</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>58</v>
@@ -928,19 +928,19 @@
         <v>62279</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>48461</v>
+        <v>47260</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>79226</v>
+        <v>79051</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.07979823494263184</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.06209293700651185</v>
+        <v>0.06055441926732055</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1015119080556287</v>
+        <v>0.1012883333975175</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>10912</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5223</v>
+        <v>5044</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>19879</v>
+        <v>20031</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02303297653675978</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01102460283427046</v>
+        <v>0.01064701140172027</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04195879746774457</v>
+        <v>0.04227845047668231</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>6</v>
@@ -978,19 +978,19 @@
         <v>6770</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2706</v>
+        <v>2042</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>14156</v>
+        <v>14594</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02207543392313656</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.008823808125610916</v>
+        <v>0.006658699988927827</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04615950514520593</v>
+        <v>0.0475856837625296</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>15</v>
@@ -999,19 +999,19 @@
         <v>17683</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>10093</v>
+        <v>10531</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>27862</v>
+        <v>28750</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02265671031868058</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01293172674165955</v>
+        <v>0.01349320635405972</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03569951703873162</v>
+        <v>0.03683793542734695</v>
       </c>
     </row>
     <row r="8">
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>11586</v>
+        <v>9770</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.005586596460366955</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02445422183430601</v>
+        <v>0.0206211291191401</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2</v>
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>8332</v>
+        <v>7371</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.007854019323701599</v>
@@ -1061,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02716947375115013</v>
+        <v>0.02403445055732412</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4</v>
@@ -1070,19 +1070,19 @@
         <v>5055</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1848</v>
+        <v>1182</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>13355</v>
+        <v>12930</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.006477579914716835</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.002368462416069251</v>
+        <v>0.001514529636433981</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01711235866127637</v>
+        <v>0.01656697829163904</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>228903</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>209792</v>
+        <v>207364</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>246673</v>
+        <v>247471</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6238251685612769</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5717419030413099</v>
+        <v>0.5651257840115596</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6722544277421334</v>
+        <v>0.6744287434638677</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>234</v>
@@ -1195,19 +1195,19 @@
         <v>239420</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>219661</v>
+        <v>219774</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>257145</v>
+        <v>256996</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6438368491159535</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5907009509081971</v>
+        <v>0.5910044734848733</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6915016856653257</v>
+        <v>0.6911003246323753</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>450</v>
@@ -1216,19 +1216,19 @@
         <v>468323</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>439994</v>
+        <v>439523</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>494394</v>
+        <v>493679</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6338977875606969</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5955524776015089</v>
+        <v>0.5949152024623303</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6691857307312882</v>
+        <v>0.6682176963271779</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>96763</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>79589</v>
+        <v>80838</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>113470</v>
+        <v>115611</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2637080665256106</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2169024896459254</v>
+        <v>0.2203072846024036</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3092379869168435</v>
+        <v>0.3150729460128778</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>87</v>
@@ -1266,19 +1266,19 @@
         <v>88961</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>73836</v>
+        <v>72518</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>107250</v>
+        <v>105646</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2392287191093154</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1985569635184047</v>
+        <v>0.195011888638784</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2884121788034482</v>
+        <v>0.2840986162139188</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>182</v>
@@ -1287,19 +1287,19 @@
         <v>185724</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>162785</v>
+        <v>162188</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>210466</v>
+        <v>209486</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.251386705548201</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2203368575507544</v>
+        <v>0.2195291025850876</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2848760702432461</v>
+        <v>0.2835492529230738</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>29316</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>20483</v>
+        <v>19951</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>41647</v>
+        <v>42008</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.07989468968425198</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.05582111824202717</v>
+        <v>0.05437082148968949</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1135002119736733</v>
+        <v>0.1144834226173269</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>33</v>
@@ -1337,19 +1337,19 @@
         <v>34032</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>23917</v>
+        <v>24592</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>46513</v>
+        <v>48230</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.09151821903816046</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.06431706885198112</v>
+        <v>0.06613240420645949</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1250793086421325</v>
+        <v>0.1296976204863769</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>62</v>
@@ -1358,19 +1358,19 @@
         <v>63348</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>50427</v>
+        <v>49127</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>81996</v>
+        <v>79656</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.08574524193000699</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.06825521025340231</v>
+        <v>0.06649585182527493</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1109858472688397</v>
+        <v>0.1078181885521341</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>11952</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6401</v>
+        <v>6488</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>20727</v>
+        <v>22088</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03257207522886044</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01744386914456987</v>
+        <v>0.01768183150654499</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05648690384162916</v>
+        <v>0.06019565128111028</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>8</v>
@@ -1408,19 +1408,19 @@
         <v>8656</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3841</v>
+        <v>4009</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>17014</v>
+        <v>16752</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02327822382981026</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01032866699490113</v>
+        <v>0.01078025112095101</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04575270497325482</v>
+        <v>0.04504894242823454</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>18</v>
@@ -1429,19 +1429,19 @@
         <v>20608</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>12067</v>
+        <v>13197</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>32131</v>
+        <v>33046</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02789413606607572</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01633268042083589</v>
+        <v>0.0178632764786446</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04349119494393256</v>
+        <v>0.04472885958310745</v>
       </c>
     </row>
     <row r="14">
@@ -1474,7 +1474,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3980</v>
+        <v>4016</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.002137988906760312</v>
@@ -1483,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01070352254392474</v>
+        <v>0.01079949025589898</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1</v>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>4503</v>
+        <v>5557</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.001076128895019291</v>
@@ -1504,7 +1504,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.006094800777033918</v>
+        <v>0.007521976963460434</v>
       </c>
     </row>
     <row r="15">
@@ -1596,19 +1596,19 @@
         <v>300525</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>277209</v>
+        <v>278810</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>323322</v>
+        <v>327006</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5549405600258339</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5118859463460634</v>
+        <v>0.5148422060924487</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5970361716296813</v>
+        <v>0.6038397200532079</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>91</v>
@@ -1617,19 +1617,19 @@
         <v>91741</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>79482</v>
+        <v>79451</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>105101</v>
+        <v>103941</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.549999688040073</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4765061731179738</v>
+        <v>0.4763195176307661</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.630093687516363</v>
+        <v>0.6231382617396473</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>383</v>
@@ -1638,19 +1638,19 @@
         <v>392266</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>366166</v>
+        <v>366582</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>419311</v>
+        <v>420088</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5537770805507765</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5169307626808773</v>
+        <v>0.5175175351740013</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5919567383697012</v>
+        <v>0.5930540888919995</v>
       </c>
     </row>
     <row r="17">
@@ -1667,19 +1667,19 @@
         <v>148389</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>126810</v>
+        <v>127075</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>170068</v>
+        <v>169839</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2740110477414514</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.234162839681794</v>
+        <v>0.2346529156162316</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3140424548142846</v>
+        <v>0.3136195505687649</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>51</v>
@@ -1688,19 +1688,19 @@
         <v>52281</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>41327</v>
+        <v>40802</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>64973</v>
+        <v>64726</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3134333492800701</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2477582278306273</v>
+        <v>0.2446156297571564</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3895192466234048</v>
+        <v>0.3880382882930664</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>199</v>
@@ -1709,19 +1709,19 @@
         <v>200671</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>176712</v>
+        <v>176171</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>225176</v>
+        <v>225985</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2832942347642873</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2494712601971829</v>
+        <v>0.2487066655912985</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3178886987882894</v>
+        <v>0.3190316249966589</v>
       </c>
     </row>
     <row r="18">
@@ -1738,19 +1738,19 @@
         <v>76450</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>61474</v>
+        <v>60251</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>95120</v>
+        <v>93005</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1411704720668131</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1135160200355036</v>
+        <v>0.1112582629934524</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1756454626008034</v>
+        <v>0.1717405639726499</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>17</v>
@@ -1759,19 +1759,19 @@
         <v>17191</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>10360</v>
+        <v>10468</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>25853</v>
+        <v>25669</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.103060692211594</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.06211082855562405</v>
+        <v>0.06275832793181867</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1549897773487614</v>
+        <v>0.1538915825244664</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>92</v>
@@ -1780,19 +1780,19 @@
         <v>93641</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>75757</v>
+        <v>78636</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>111035</v>
+        <v>112008</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1321963584309429</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1069489933565213</v>
+        <v>0.111013435584089</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1567524824444446</v>
+        <v>0.158125332482529</v>
       </c>
     </row>
     <row r="19">
@@ -1809,19 +1809,19 @@
         <v>15312</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>8839</v>
+        <v>8455</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>24989</v>
+        <v>24008</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02827497928624057</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01632125748074044</v>
+        <v>0.01561268748601502</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04614319743242767</v>
+        <v>0.04433252093522538</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -1830,19 +1830,19 @@
         <v>3852</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>983</v>
+        <v>1097</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>12287</v>
+        <v>10868</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02309566329446396</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.005895498703267713</v>
+        <v>0.006578054772642269</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07366392036737994</v>
+        <v>0.06515708739282308</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>18</v>
@@ -1851,19 +1851,19 @@
         <v>19165</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>11271</v>
+        <v>11597</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>29422</v>
+        <v>30707</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0270553508747708</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01591130161972263</v>
+        <v>0.01637229975097118</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04153671397571117</v>
+        <v>0.04335014729925375</v>
       </c>
     </row>
     <row r="20">
@@ -1883,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5201</v>
+        <v>4390</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.001602940879661113</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.009604764931157438</v>
+        <v>0.008106307549072597</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -1904,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>8584</v>
+        <v>8535</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01041060717379886</v>
@@ -1913,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.05146257536858182</v>
+        <v>0.05116998586418162</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>2</v>
@@ -1925,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>9840</v>
+        <v>9565</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.003676975379222567</v>
@@ -1934,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01389217255445914</v>
+        <v>0.01350317362579757</v>
       </c>
     </row>
     <row r="21">
@@ -2026,19 +2026,19 @@
         <v>681102</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>647697</v>
+        <v>645766</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>719387</v>
+        <v>714904</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5500150719885757</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5230388292236338</v>
+        <v>0.521479567498344</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.580931185122642</v>
+        <v>0.5773108225129759</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>377</v>
@@ -2047,19 +2047,19 @@
         <v>385032</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>358904</v>
+        <v>361547</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>411955</v>
+        <v>415227</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.539045174426225</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5024667719474021</v>
+        <v>0.5061659146045072</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5767382188462804</v>
+        <v>0.5813180142951012</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1044</v>
@@ -2068,19 +2068,19 @@
         <v>1066135</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1023295</v>
+        <v>1022974</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1114781</v>
+        <v>1113046</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.546002187769721</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5240624141949018</v>
+        <v>0.5238981754809713</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.570915305839776</v>
+        <v>0.5700271228792789</v>
       </c>
     </row>
     <row r="23">
@@ -2097,19 +2097,19 @@
         <v>370841</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>337385</v>
+        <v>339721</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>403196</v>
+        <v>405828</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.299467658755204</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2724508070284286</v>
+        <v>0.2743372068632626</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3255954094158162</v>
+        <v>0.3277209974988867</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>204</v>
@@ -2118,19 +2118,19 @@
         <v>209072</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>183226</v>
+        <v>182837</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>232411</v>
+        <v>233672</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2927014753112873</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.256517126515162</v>
+        <v>0.2559717312839593</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.325376025954941</v>
+        <v>0.3271404905216446</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>571</v>
@@ -2139,19 +2139,19 @@
         <v>579914</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>540158</v>
+        <v>536038</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>624980</v>
+        <v>619348</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2969925298299207</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2766325511484437</v>
+        <v>0.2745223526950695</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3200727002322653</v>
+        <v>0.317187944547131</v>
       </c>
     </row>
     <row r="24">
@@ -2168,19 +2168,19 @@
         <v>150554</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>128901</v>
+        <v>129200</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>174555</v>
+        <v>173344</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1215778622837403</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1040924458537283</v>
+        <v>0.1043338379112972</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1409592132917414</v>
+        <v>0.1399814634477198</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>84</v>
@@ -2189,19 +2189,19 @@
         <v>91502</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>75726</v>
+        <v>73987</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>110162</v>
+        <v>110952</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1281032668779261</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1060159263744604</v>
+        <v>0.1035819151249225</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1542263452979047</v>
+        <v>0.1553332460776</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>237</v>
@@ -2210,19 +2210,19 @@
         <v>242056</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>214036</v>
+        <v>213873</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>271309</v>
+        <v>271275</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1239649122054753</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1096149520798445</v>
+        <v>0.1095314721450291</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1389462283021726</v>
+        <v>0.1389288938263896</v>
       </c>
     </row>
     <row r="25">
@@ -2239,19 +2239,19 @@
         <v>30314</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>20887</v>
+        <v>21345</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>42196</v>
+        <v>41926</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02447931069341985</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01686727249357801</v>
+        <v>0.01723678594330195</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03407477811247291</v>
+        <v>0.03385660504114709</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>26</v>
@@ -2260,19 +2260,19 @@
         <v>25779</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>17180</v>
+        <v>17425</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>36199</v>
+        <v>36951</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03609110556506176</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02405227110032107</v>
+        <v>0.02439490446969119</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05067929376818129</v>
+        <v>0.05173162571261638</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>58</v>
@@ -2281,19 +2281,19 @@
         <v>56093</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>44135</v>
+        <v>41681</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>72331</v>
+        <v>72084</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02872700654729115</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02260277040142121</v>
+        <v>0.02134601881040079</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03704310716930314</v>
+        <v>0.03691635796829043</v>
       </c>
     </row>
     <row r="26">
@@ -2310,19 +2310,19 @@
         <v>5523</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1899</v>
+        <v>1932</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>13921</v>
+        <v>13028</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.0044600962790602</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.001533459461551408</v>
+        <v>0.001559822356749467</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01124187956701604</v>
+        <v>0.01052091043142915</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3</v>
@@ -2331,19 +2331,19 @@
         <v>2899</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>8279</v>
+        <v>7962</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.004058977819499853</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.001216690642624953</v>
+        <v>0.001215026973674206</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.0115912147701703</v>
+        <v>0.01114663404336937</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>8</v>
@@ -2352,19 +2352,19 @@
         <v>8422</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3711</v>
+        <v>3825</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>17554</v>
+        <v>15403</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.004313363647591934</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.001900743387456224</v>
+        <v>0.001958868281275699</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.008990148379864702</v>
+        <v>0.007888480174498639</v>
       </c>
     </row>
     <row r="27">
@@ -2456,7 +2456,7 @@
         <v>187563</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>170379</v>
+        <v>169270</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>205239</v>
@@ -2465,10 +2465,10 @@
         <v>0.5350469387399019</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4860254231684646</v>
+        <v>0.4828624994533108</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5854700669625764</v>
+        <v>0.5854701331724068</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>284</v>
@@ -2477,19 +2477,19 @@
         <v>298832</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>272772</v>
+        <v>274390</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>320985</v>
+        <v>323376</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5254163017790797</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.479597525647386</v>
+        <v>0.4824428094490067</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5643665661061052</v>
+        <v>0.5685707845977048</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>466</v>
@@ -2498,19 +2498,19 @@
         <v>486395</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>459176</v>
+        <v>454269</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>520578</v>
+        <v>515911</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5290887095068737</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.4994810236377771</v>
+        <v>0.4941429068473221</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5662720221038277</v>
+        <v>0.5611954980436213</v>
       </c>
     </row>
     <row r="29">
@@ -2527,19 +2527,19 @@
         <v>82724</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>67445</v>
+        <v>67498</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>100077</v>
+        <v>99992</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2359795813348622</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1923939012714241</v>
+        <v>0.1925473884172103</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2854811211682817</v>
+        <v>0.285239350659387</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>154</v>
@@ -2548,19 +2548,19 @@
         <v>162681</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>144675</v>
+        <v>141146</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>188293</v>
+        <v>185232</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2860317829224966</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2543721140900773</v>
+        <v>0.2481674883805045</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.331063812952014</v>
+        <v>0.3256811498272519</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>232</v>
@@ -2569,19 +2569,19 @@
         <v>245405</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>219489</v>
+        <v>219396</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>274519</v>
+        <v>275947</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2669456007051328</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2387545753907164</v>
+        <v>0.2386538320272769</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2986148618269832</v>
+        <v>0.3001683790512008</v>
       </c>
     </row>
     <row r="30">
@@ -2598,19 +2598,19 @@
         <v>65030</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>52371</v>
+        <v>51196</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>80341</v>
+        <v>80145</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1855048187127431</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1493950135168993</v>
+        <v>0.146043302056843</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2291825747195034</v>
+        <v>0.2286244415833769</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>70</v>
@@ -2619,19 +2619,19 @@
         <v>73436</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>59054</v>
+        <v>58066</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>89431</v>
+        <v>90811</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.129118050307896</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1038302468770822</v>
+        <v>0.102092880381089</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1572406591676307</v>
+        <v>0.1596665707220444</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>134</v>
@@ -2640,19 +2640,19 @@
         <v>138466</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>116817</v>
+        <v>117583</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>160271</v>
+        <v>163377</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1506197645639395</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1270709912478544</v>
+        <v>0.1279034611165652</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1743389809136883</v>
+        <v>0.1777171433784064</v>
       </c>
     </row>
     <row r="31">
@@ -2669,19 +2669,19 @@
         <v>14252</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>7822</v>
+        <v>8143</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>23208</v>
+        <v>23622</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.04065665741483554</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.02231380648087547</v>
+        <v>0.02322850890730998</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.06620249850783855</v>
+        <v>0.06738589072353431</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>29</v>
@@ -2690,19 +2690,19 @@
         <v>31465</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>20340</v>
+        <v>21626</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>43875</v>
+        <v>45048</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.05532225582518623</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.03576316737431569</v>
+        <v>0.03802441406451805</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.07714212680308036</v>
+        <v>0.07920457391844417</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>44</v>
@@ -2711,19 +2711,19 @@
         <v>45717</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>32986</v>
+        <v>35078</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>60439</v>
+        <v>62148</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.04972988876223996</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.03588117415589065</v>
+        <v>0.03815680887707069</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.06574375059034462</v>
+        <v>0.06760304476840442</v>
       </c>
     </row>
     <row r="32">
@@ -2743,7 +2743,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>5120</v>
+        <v>5749</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.002812003797657204</v>
@@ -2752,7 +2752,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01460411129282806</v>
+        <v>0.01639950529551746</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>2</v>
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>7060</v>
+        <v>7076</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.004111609165341526</v>
@@ -2773,7 +2773,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01241322629186693</v>
+        <v>0.01244202721102498</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>3</v>
@@ -2782,19 +2782,19 @@
         <v>3324</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>9067</v>
+        <v>8852</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.003616036461814034</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.00106716050688108</v>
+        <v>0.00106848114914713</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.009863135162750447</v>
+        <v>0.00962854099308672</v>
       </c>
     </row>
     <row r="33">
@@ -2886,19 +2886,19 @@
         <v>209383</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>195223</v>
+        <v>194015</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>224178</v>
+        <v>224922</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.7041317675183303</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.6565136771066661</v>
+        <v>0.6524508992304103</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.7538860917660234</v>
+        <v>0.7563888736020277</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>711</v>
@@ -2907,19 +2907,19 @@
         <v>711374</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>676180</v>
+        <v>675611</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>748339</v>
+        <v>747459</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.5696644475604906</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.5414811016145366</v>
+        <v>0.5410257710174489</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.5992656195328832</v>
+        <v>0.5985610277903322</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>924</v>
@@ -2928,19 +2928,19 @@
         <v>920757</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>879303</v>
+        <v>883563</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>955471</v>
+        <v>959172</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.5955263285355463</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.5687148440839283</v>
+        <v>0.5714698175863061</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.61797861315091</v>
+        <v>0.6203726340203398</v>
       </c>
     </row>
     <row r="35">
@@ -2957,19 +2957,19 @@
         <v>66014</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>53929</v>
+        <v>51675</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>80630</v>
+        <v>79117</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2219994668252516</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1813564068517118</v>
+        <v>0.1737777968564803</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2711511657742058</v>
+        <v>0.2660634276726814</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>296</v>
@@ -2978,19 +2978,19 @@
         <v>298928</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>269097</v>
+        <v>272338</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>330352</v>
+        <v>331901</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2393800843473249</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2154912701506143</v>
+        <v>0.2180867971004399</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2645442094989066</v>
+        <v>0.2657842809727116</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>365</v>
@@ -2999,19 +2999,19 @@
         <v>364943</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>335677</v>
+        <v>331346</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>404022</v>
+        <v>397876</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2360372984438819</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2171085904600062</v>
+        <v>0.2143076197560128</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2613128058452727</v>
+        <v>0.2573376468618798</v>
       </c>
     </row>
     <row r="36">
@@ -3028,19 +3028,19 @@
         <v>20204</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>13189</v>
+        <v>12607</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>29431</v>
+        <v>29325</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.06794348321723126</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.04435328985753744</v>
+        <v>0.04239707890457477</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.09897308797792542</v>
+        <v>0.09861593499147363</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>166</v>
@@ -3049,19 +3049,19 @@
         <v>169538</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>145362</v>
+        <v>147629</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>196368</v>
+        <v>194044</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1357651497135239</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1164052825203133</v>
+        <v>0.1182204058786752</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1572501475482476</v>
+        <v>0.1553897340066845</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>187</v>
@@ -3070,19 +3070,19 @@
         <v>189742</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>163974</v>
+        <v>163155</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>215427</v>
+        <v>215735</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1227211188887333</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.106054702170042</v>
+        <v>0.1055254448419919</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1393334333925145</v>
+        <v>0.1395329513767035</v>
       </c>
     </row>
     <row r="37">
@@ -3102,7 +3102,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>6383</v>
+        <v>6243</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.005925282439186867</v>
@@ -3111,7 +3111,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.02146376746754138</v>
+        <v>0.02099522708991414</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>58</v>
@@ -3120,19 +3120,19 @@
         <v>61305</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>46233</v>
+        <v>48125</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>77795</v>
+        <v>79156</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.04909255336347554</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.03702335813700382</v>
+        <v>0.03853859132564968</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.06229748446417504</v>
+        <v>0.06338795835091025</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>60</v>
@@ -3141,19 +3141,19 @@
         <v>63067</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>48361</v>
+        <v>47185</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>80546</v>
+        <v>79521</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.04079026234576238</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.03127882446593129</v>
+        <v>0.03051817460958093</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.05209524458969946</v>
+        <v>0.05143230402429826</v>
       </c>
     </row>
     <row r="38">
@@ -3183,19 +3183,19 @@
         <v>7615</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>3266</v>
+        <v>3007</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>14785</v>
+        <v>15137</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.006097765015185013</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.002615537883507762</v>
+        <v>0.002408236372668344</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.01183944722812184</v>
+        <v>0.01212197021582322</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>7</v>
@@ -3204,19 +3204,19 @@
         <v>7615</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>3370</v>
+        <v>3129</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>15372</v>
+        <v>14864</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.004924991786076128</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.002179745949600743</v>
+        <v>0.002023511420154535</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.009942099514776674</v>
+        <v>0.009613964509239551</v>
       </c>
     </row>
     <row r="39">
@@ -3308,19 +3308,19 @@
         <v>1887657</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1829698</v>
+        <v>1830104</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>1943118</v>
+        <v>1944189</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.5775287167895922</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.5597962188901954</v>
+        <v>0.5599204337009308</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.5944969667702175</v>
+        <v>0.5948245573136929</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>1882</v>
@@ -3329,19 +3329,19 @@
         <v>1915986</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>1858451</v>
+        <v>1860251</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>1977099</v>
+        <v>1974562</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.5673391562044884</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.550302508671201</v>
+        <v>0.5508355677629043</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.5854351663448494</v>
+        <v>0.5846839158071555</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>3722</v>
@@ -3350,19 +3350,19 @@
         <v>3803644</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>3729737</v>
+        <v>3716475</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>3893174</v>
+        <v>3887305</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.5723506528078622</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.5612295134834919</v>
+        <v>0.5592340027449449</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.5858227095471618</v>
+        <v>0.5849395550013651</v>
       </c>
     </row>
     <row r="41">
@@ -3379,19 +3379,19 @@
         <v>904687</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>855699</v>
+        <v>852963</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>959595</v>
+        <v>952922</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.276789018486538</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2618009855239595</v>
+        <v>0.2609640809131314</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2935881467324947</v>
+        <v>0.2915464402275226</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>876</v>
@@ -3400,19 +3400,19 @@
         <v>897641</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>848063</v>
+        <v>848896</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>953531</v>
+        <v>954225</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.265798785347506</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.2511184170020031</v>
+        <v>0.2513649846651785</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2823483389637378</v>
+        <v>0.282553937708206</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>1770</v>
@@ -3421,19 +3421,19 @@
         <v>1802328</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1727885</v>
+        <v>1733198</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>1874928</v>
+        <v>1876039</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2712040739844924</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.2600022860166924</v>
+        <v>0.2608018054886803</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2821284222776419</v>
+        <v>0.2822956741866071</v>
       </c>
     </row>
     <row r="42">
@@ -3450,19 +3450,19 @@
         <v>381636</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>345828</v>
+        <v>340397</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>416494</v>
+        <v>418402</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1167613934871646</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1058059899875414</v>
+        <v>0.1041443335144468</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1274263346517425</v>
+        <v>0.128010217367084</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>391</v>
@@ -3471,19 +3471,19 @@
         <v>407897</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>372437</v>
+        <v>368831</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>447088</v>
+        <v>446231</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1207816243119933</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1102816809991701</v>
+        <v>0.1092139201704389</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1323863211068239</v>
+        <v>0.1321327185073408</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>770</v>
@@ -3492,19 +3492,19 @@
         <v>789533</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>732599</v>
+        <v>738049</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>840679</v>
+        <v>841498</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1188043679862533</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1102372977366475</v>
+        <v>0.1110574581988626</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1265005117588592</v>
+        <v>0.1266238234808242</v>
       </c>
     </row>
     <row r="43">
@@ -3521,19 +3521,19 @@
         <v>84504</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>67306</v>
+        <v>66724</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>105226</v>
+        <v>103192</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.02585411600338676</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.02059238433427102</v>
+        <v>0.02041409757182003</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.03219399918176754</v>
+        <v>0.03157160341682595</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>130</v>
@@ -3542,19 +3542,19 @@
         <v>137828</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>115340</v>
+        <v>116447</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>160986</v>
+        <v>164007</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.04081189282138387</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.03415305356038913</v>
+        <v>0.03448103495546445</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.04766914069631251</v>
+        <v>0.04856369219450879</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>213</v>
@@ -3563,19 +3563,19 @@
         <v>222332</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>192630</v>
+        <v>194610</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>251374</v>
+        <v>251974</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.03345526079674056</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.02898590139923206</v>
+        <v>0.02928381694330334</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.03782529538029884</v>
+        <v>0.03791568006804347</v>
       </c>
     </row>
     <row r="44">
@@ -3592,19 +3592,19 @@
         <v>10024</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>5272</v>
+        <v>4774</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>19432</v>
+        <v>19020</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.003066755233318454</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.001612943492870438</v>
+        <v>0.001460618990029335</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.005945327129720894</v>
+        <v>0.005819307804347111</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>16</v>
@@ -3613,19 +3613,19 @@
         <v>17793</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>10372</v>
+        <v>10101</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>29189</v>
+        <v>27705</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.005268541314628523</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.003071295208434597</v>
+        <v>0.002991038369743103</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.00864319148431026</v>
+        <v>0.008203543646295382</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>25</v>
@@ -3634,19 +3634,19 @@
         <v>27816</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>19157</v>
+        <v>17772</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>41316</v>
+        <v>41095</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.004185644424651493</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.002882633591078639</v>
+        <v>0.002674193904658619</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.006216996708578059</v>
+        <v>0.006183785130863467</v>
       </c>
     </row>
     <row r="45">
@@ -3980,19 +3980,19 @@
         <v>272636</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>251564</v>
+        <v>249847</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>293757</v>
+        <v>292954</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6250774736269283</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5767663467488531</v>
+        <v>0.5728291755548249</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6735039096476935</v>
+        <v>0.6716617829309901</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>183</v>
@@ -4001,19 +4001,19 @@
         <v>200796</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>181281</v>
+        <v>181854</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>219494</v>
+        <v>217988</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6385539538917301</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5764949704571256</v>
+        <v>0.5783153418823035</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6980158224945675</v>
+        <v>0.6932279625545469</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>434</v>
@@ -4022,19 +4022,19 @@
         <v>473432</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>444679</v>
+        <v>444614</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>502468</v>
+        <v>500218</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6307231444207266</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5924174829037285</v>
+        <v>0.5923314104198297</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6694063971867814</v>
+        <v>0.6664097144009872</v>
       </c>
     </row>
     <row r="5">
@@ -4051,19 +4051,19 @@
         <v>119562</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>100851</v>
+        <v>99668</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>138800</v>
+        <v>139215</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2741230804523192</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2312223641049941</v>
+        <v>0.2285105898393323</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3182297142738623</v>
+        <v>0.3191822607417349</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>80</v>
@@ -4072,19 +4072,19 @@
         <v>88968</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>73770</v>
+        <v>73820</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>108179</v>
+        <v>108578</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2829282603441526</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2345958223854802</v>
+        <v>0.2347552888380929</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3440203575091113</v>
+        <v>0.3452895065603321</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>190</v>
@@ -4093,19 +4093,19 @@
         <v>208530</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>182852</v>
+        <v>182507</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>234656</v>
+        <v>235286</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2778118141552358</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2436018694072088</v>
+        <v>0.2431423451198264</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3126178950079795</v>
+        <v>0.3134568567939253</v>
       </c>
     </row>
     <row r="6">
@@ -4122,19 +4122,19 @@
         <v>37091</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>27106</v>
+        <v>27640</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>50368</v>
+        <v>51290</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.08503923290970263</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.06214643588935896</v>
+        <v>0.06337167817035411</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1154797605307019</v>
+        <v>0.1175944930120503</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>17</v>
@@ -4143,19 +4143,19 @@
         <v>20709</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>12092</v>
+        <v>12476</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>33030</v>
+        <v>32409</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.06585697798495325</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.03845336452388019</v>
+        <v>0.03967556105663603</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1050405653765601</v>
+        <v>0.10306318938585</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>53</v>
@@ -4164,19 +4164,19 @@
         <v>57800</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>42457</v>
+        <v>43304</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>74173</v>
+        <v>75498</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.07700325509799584</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.05656221771566463</v>
+        <v>0.05769113543072899</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.09881610150431949</v>
+        <v>0.1005812257771412</v>
       </c>
     </row>
     <row r="7">
@@ -4193,19 +4193,19 @@
         <v>3861</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1026</v>
+        <v>945</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8954</v>
+        <v>9506</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.008851499561155224</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.002353219358619283</v>
+        <v>0.002167541092876641</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02052972250132735</v>
+        <v>0.02179346891055189</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -4217,7 +4217,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>5035</v>
+        <v>4785</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.00317255527877484</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01601181473398202</v>
+        <v>0.01521666553208141</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>5</v>
@@ -4235,19 +4235,19 @@
         <v>4858</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1840</v>
+        <v>1861</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>10685</v>
+        <v>11302</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.006472432531436654</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.002450954332112627</v>
+        <v>0.002478922118758622</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01423487732024199</v>
+        <v>0.01505661459503696</v>
       </c>
     </row>
     <row r="8">
@@ -4267,7 +4267,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>11319</v>
+        <v>12249</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.006908713449894592</v>
@@ -4276,7 +4276,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02595133876925236</v>
+        <v>0.02808269367749328</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2</v>
@@ -4288,7 +4288,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>10969</v>
+        <v>10441</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.009488252500389279</v>
@@ -4297,7 +4297,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.03488400074460147</v>
+        <v>0.03320358363924135</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4</v>
@@ -4306,19 +4306,19 @@
         <v>5997</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1911</v>
+        <v>1985</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>15026</v>
+        <v>14814</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.007989353794605126</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.002545404664451978</v>
+        <v>0.002644155645789587</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02001806150152953</v>
+        <v>0.01973549393287754</v>
       </c>
     </row>
     <row r="9">
@@ -4410,19 +4410,19 @@
         <v>255893</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>234823</v>
+        <v>233293</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>277110</v>
+        <v>276345</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6129082437573963</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5624420495576993</v>
+        <v>0.5587766408438261</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6637249802031016</v>
+        <v>0.6618929709105723</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>192</v>
@@ -4431,19 +4431,19 @@
         <v>209824</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>190221</v>
+        <v>192032</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>228028</v>
+        <v>227325</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6226753431143551</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5645011961293368</v>
+        <v>0.5698741060656189</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6766975454148539</v>
+        <v>0.6746122209691912</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>424</v>
@@ -4452,19 +4452,19 @@
         <v>465718</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>437728</v>
+        <v>436632</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>495837</v>
+        <v>496719</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.617270507970988</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.58017262876061</v>
+        <v>0.5787194142875851</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6571916016927748</v>
+        <v>0.6583605415008502</v>
       </c>
     </row>
     <row r="11">
@@ -4481,19 +4481,19 @@
         <v>124594</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>105877</v>
+        <v>105655</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>145722</v>
+        <v>145797</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.29842272617871</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2535933607353704</v>
+        <v>0.2530622160843669</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3490287388635928</v>
+        <v>0.3492089949348474</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>80</v>
@@ -4502,19 +4502,19 @@
         <v>93347</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>75488</v>
+        <v>75686</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>112733</v>
+        <v>112556</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2770170725676481</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.224018037119092</v>
+        <v>0.2246068473056449</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.334547142088478</v>
+        <v>0.3340220805565886</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>192</v>
@@ -4523,19 +4523,19 @@
         <v>217941</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>190841</v>
+        <v>190563</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>244443</v>
+        <v>245907</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2888623527962536</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2529438743620999</v>
+        <v>0.2525752104458062</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3239889669718821</v>
+        <v>0.3259295484268431</v>
       </c>
     </row>
     <row r="12">
@@ -4552,19 +4552,19 @@
         <v>34580</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>23019</v>
+        <v>23411</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>48791</v>
+        <v>49031</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.08282483631734902</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.05513479879129794</v>
+        <v>0.05607324908713004</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1168615566199307</v>
+        <v>0.1174366498809211</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>25</v>
@@ -4573,19 +4573,19 @@
         <v>26717</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>18823</v>
+        <v>17814</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>39842</v>
+        <v>38673</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.07928605122661808</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.05585911218903745</v>
+        <v>0.05286426329588169</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1182348478439694</v>
+        <v>0.1147675403318768</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>53</v>
@@ -4594,19 +4594,19 @@
         <v>61297</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>46074</v>
+        <v>43982</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>80059</v>
+        <v>77292</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.08124431430188606</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.06106777112103498</v>
+        <v>0.05829490633870642</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.10611183338717</v>
+        <v>0.1024442968480725</v>
       </c>
     </row>
     <row r="13">
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8018</v>
+        <v>7468</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.005844193746544743</v>
@@ -4635,7 +4635,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01920526360525528</v>
+        <v>0.01788636053571468</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -4644,19 +4644,19 @@
         <v>3942</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1003</v>
+        <v>1035</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>8879</v>
+        <v>9952</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01169864519927397</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.002975878843496503</v>
+        <v>0.003070135506442174</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02634902284540027</v>
+        <v>0.0295341884785803</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>6</v>
@@ -4665,19 +4665,19 @@
         <v>6382</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2223</v>
+        <v>2835</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>13530</v>
+        <v>13379</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.008458958184694462</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.002946443255783097</v>
+        <v>0.003757639231073751</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01793259564369074</v>
+        <v>0.01773300931191601</v>
       </c>
     </row>
     <row r="14">
@@ -4707,19 +4707,19 @@
         <v>3142</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>8418</v>
+        <v>8423</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.009322887892104692</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.002910619112593959</v>
+        <v>0.002904498800722046</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02498101913658619</v>
+        <v>0.02499735766665777</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>3</v>
@@ -4728,19 +4728,19 @@
         <v>3142</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>8545</v>
+        <v>8276</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.004163866746177868</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.001290513905126434</v>
+        <v>0.001288553621296329</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01132604289454111</v>
+        <v>0.01096949545952776</v>
       </c>
     </row>
     <row r="15">
@@ -4832,19 +4832,19 @@
         <v>405372</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>378415</v>
+        <v>381301</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>428282</v>
+        <v>430804</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6458845293325378</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6029338035974177</v>
+        <v>0.6075323710055875</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6823868201989024</v>
+        <v>0.686405340712913</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>149</v>
@@ -4853,19 +4853,19 @@
         <v>158973</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>141494</v>
+        <v>143716</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>173745</v>
+        <v>175344</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6133373554750401</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5459034670408265</v>
+        <v>0.554475081280977</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6703297100389969</v>
+        <v>0.6764995985292175</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>533</v>
@@ -4874,19 +4874,19 @@
         <v>564344</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>534420</v>
+        <v>535809</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>595570</v>
+        <v>593017</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6363718501952689</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6026282821574659</v>
+        <v>0.6041947398419829</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6715831720757456</v>
+        <v>0.6687040092164643</v>
       </c>
     </row>
     <row r="17">
@@ -4903,19 +4903,19 @@
         <v>167293</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>144532</v>
+        <v>143818</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>190112</v>
+        <v>191289</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2665507292481015</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2302841269048969</v>
+        <v>0.2291476457279067</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3029074232005712</v>
+        <v>0.3047838845233108</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>70</v>
@@ -4924,19 +4924,19 @@
         <v>75699</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>62109</v>
+        <v>60233</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>92149</v>
+        <v>89954</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2920576299892164</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2396228009815608</v>
+        <v>0.2323850171595059</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3555244863012064</v>
+        <v>0.347054832423402</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>223</v>
@@ -4945,19 +4945,19 @@
         <v>242992</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>213787</v>
+        <v>219563</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>271053</v>
+        <v>273645</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2740057225325798</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2410725955363648</v>
+        <v>0.2475858040809631</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.305647312378871</v>
+        <v>0.3085708825446762</v>
       </c>
     </row>
     <row r="18">
@@ -4974,19 +4974,19 @@
         <v>47763</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>34789</v>
+        <v>35864</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>62757</v>
+        <v>63304</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.07610140511736117</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.05543023281047376</v>
+        <v>0.05714317367152749</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.09999101466436948</v>
+        <v>0.1008624670988586</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>17</v>
@@ -4995,19 +4995,19 @@
         <v>17463</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>10359</v>
+        <v>10341</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>26899</v>
+        <v>26828</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.067372720943354</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.03996600572481455</v>
+        <v>0.03989816436757505</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1037800308171647</v>
+        <v>0.1035043700164533</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>62</v>
@@ -5016,19 +5016,19 @@
         <v>65225</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>51725</v>
+        <v>51345</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>82094</v>
+        <v>82502</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.07355024131427847</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.05832638137030634</v>
+        <v>0.05789862337837962</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.09257220262575613</v>
+        <v>0.09303200616399367</v>
       </c>
     </row>
     <row r="19">
@@ -5045,19 +5045,19 @@
         <v>5157</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1808</v>
+        <v>1771</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11575</v>
+        <v>12047</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.008217471850194258</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.002881033841335791</v>
+        <v>0.002821853566631026</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01844221332668164</v>
+        <v>0.01919413988822525</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>6</v>
@@ -5066,19 +5066,19 @@
         <v>6154</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2127</v>
+        <v>2097</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>12502</v>
+        <v>12370</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02374365303152603</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.008206276030007603</v>
+        <v>0.008091181454661422</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04823513480554356</v>
+        <v>0.04772592399246715</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>11</v>
@@ -5087,19 +5087,19 @@
         <v>11312</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>5816</v>
+        <v>5650</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>19169</v>
+        <v>18987</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01275536446267646</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.006557902945084551</v>
+        <v>0.006371378367868394</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02161515051999117</v>
+        <v>0.02141015591739176</v>
       </c>
     </row>
     <row r="20">
@@ -5119,7 +5119,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>6267</v>
+        <v>7188</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.003245864451805226</v>
@@ -5128,7 +5128,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.009985690180301912</v>
+        <v>0.01145201592403475</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -5140,7 +5140,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>5472</v>
+        <v>4762</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.003488640560863478</v>
@@ -5149,7 +5149,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02111360879921298</v>
+        <v>0.01837381465468929</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>3</v>
@@ -5158,19 +5158,19 @@
         <v>2941</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>8256</v>
+        <v>8109</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.003316821495196376</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.00101669012330387</v>
+        <v>0.001008680536216758</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.0093096544400759</v>
+        <v>0.009143423301560738</v>
       </c>
     </row>
     <row r="21">
@@ -5262,19 +5262,19 @@
         <v>691821</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>656427</v>
+        <v>654304</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>724166</v>
+        <v>726463</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6004511254993037</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5697315939651991</v>
+        <v>0.567889804161423</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6285245724720528</v>
+        <v>0.6305185489486235</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>408</v>
@@ -5283,19 +5283,19 @@
         <v>433351</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>405075</v>
+        <v>406088</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>462843</v>
+        <v>461266</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5667504010651252</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5297705835244523</v>
+        <v>0.5310946717253411</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6053204028845133</v>
+        <v>0.6032583609046096</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1062</v>
@@ -5304,19 +5304,19 @@
         <v>1125172</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1080986</v>
+        <v>1084461</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1170756</v>
+        <v>1170468</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5870076292524901</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5639557104587428</v>
+        <v>0.5657689652149208</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6107891074987705</v>
+        <v>0.6106392284319812</v>
       </c>
     </row>
     <row r="23">
@@ -5333,19 +5333,19 @@
         <v>299820</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>272383</v>
+        <v>268853</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>330951</v>
+        <v>332793</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.260222438266832</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2364090474328235</v>
+        <v>0.2333456181345424</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2872416977873221</v>
+        <v>0.2888408234725298</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>221</v>
@@ -5354,19 +5354,19 @@
         <v>239969</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>214695</v>
+        <v>213955</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>268868</v>
+        <v>264380</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3138386517300398</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2807849259673683</v>
+        <v>0.2798173940961238</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3516340752726558</v>
+        <v>0.3457641700670737</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>494</v>
@@ -5375,19 +5375,19 @@
         <v>539789</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>501013</v>
+        <v>500979</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>581642</v>
+        <v>581299</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2816103869404215</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2613809131562529</v>
+        <v>0.2613634417182268</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3034453414702467</v>
+        <v>0.3032667558413372</v>
       </c>
     </row>
     <row r="24">
@@ -5404,19 +5404,19 @@
         <v>121663</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>100962</v>
+        <v>101249</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>143518</v>
+        <v>145679</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1055945355519604</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.08762766085414564</v>
+        <v>0.08787655097558592</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1245634330450058</v>
+        <v>0.1264386653283566</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>58</v>
@@ -5425,19 +5425,19 @@
         <v>65810</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>50511</v>
+        <v>52021</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>82922</v>
+        <v>84751</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.08606900934141749</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.066059815943041</v>
+        <v>0.06803466680699967</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1084476891280671</v>
+        <v>0.1108406725791399</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>171</v>
@@ -5446,19 +5446,19 @@
         <v>187473</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>163604</v>
+        <v>163335</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>216469</v>
+        <v>215640</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.0978056425018667</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.08535313597453988</v>
+        <v>0.0852129434392732</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1129330146628312</v>
+        <v>0.1125002104936009</v>
       </c>
     </row>
     <row r="25">
@@ -5475,19 +5475,19 @@
         <v>31957</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>22371</v>
+        <v>21542</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>47204</v>
+        <v>45468</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02773650135773652</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01941650317635997</v>
+        <v>0.01869662100545785</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0409699514420994</v>
+        <v>0.03946264234980605</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>16</v>
@@ -5496,19 +5496,19 @@
         <v>19172</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>11334</v>
+        <v>11293</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>30870</v>
+        <v>30249</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02507441306855007</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01482233489170082</v>
+        <v>0.01476870214767657</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04037315905191617</v>
+        <v>0.03956104035581597</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>45</v>
@@ -5517,19 +5517,19 @@
         <v>51130</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>37854</v>
+        <v>37939</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>68132</v>
+        <v>67246</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02667457243706117</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01974861246338588</v>
+        <v>0.01979313511111664</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03554476805454618</v>
+        <v>0.03508261342361723</v>
       </c>
     </row>
     <row r="26">
@@ -5546,19 +5546,19 @@
         <v>6908</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3088</v>
+        <v>2900</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>13653</v>
+        <v>13727</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.005995399324167459</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.002680346784251173</v>
+        <v>0.002517246033347475</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01184980124706181</v>
+        <v>0.01191411013548666</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>6</v>
@@ -5567,19 +5567,19 @@
         <v>6322</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2330</v>
+        <v>2189</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>13059</v>
+        <v>13112</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.008267524794867403</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.003047398832273474</v>
+        <v>0.00286263839257314</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01707907641721786</v>
+        <v>0.01714801419955405</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>13</v>
@@ -5588,19 +5588,19 @@
         <v>13229</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>7008</v>
+        <v>7851</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>22006</v>
+        <v>21835</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.006901768868160586</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.003656097111611976</v>
+        <v>0.004096014863626977</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01148082200998133</v>
+        <v>0.01139146638849051</v>
       </c>
     </row>
     <row r="27">
@@ -5692,19 +5692,19 @@
         <v>281613</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>259424</v>
+        <v>259602</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>305776</v>
+        <v>305501</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.5549074590448037</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5111853146055797</v>
+        <v>0.511535971432023</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.6025195239670018</v>
+        <v>0.6019780237274115</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>365</v>
@@ -5713,19 +5713,19 @@
         <v>395433</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>366733</v>
+        <v>366182</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>425105</v>
+        <v>423494</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5227929923096518</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.4848487847948621</v>
+        <v>0.4841199670351933</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5620208452931202</v>
+        <v>0.5598917476211096</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>639</v>
@@ -5734,19 +5734,19 @@
         <v>677046</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>643519</v>
+        <v>639818</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>715116</v>
+        <v>714942</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5356881506292328</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5091607935573284</v>
+        <v>0.5062324828902893</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5658093753193134</v>
+        <v>0.5656721468308977</v>
       </c>
     </row>
     <row r="29">
@@ -5763,19 +5763,19 @@
         <v>159918</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>137884</v>
+        <v>138312</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>180185</v>
+        <v>182899</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3151126018537488</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2716952905864308</v>
+        <v>0.2725376996599624</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3550480221590785</v>
+        <v>0.3603953802571342</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>226</v>
@@ -5784,19 +5784,19 @@
         <v>242951</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>217769</v>
+        <v>216218</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>269705</v>
+        <v>270281</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3211994354369171</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2879067302097507</v>
+        <v>0.2858563765868954</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3565706588899902</v>
+        <v>0.3573314455016637</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>375</v>
@@ -5805,19 +5805,19 @@
         <v>402869</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>370015</v>
+        <v>367528</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>437388</v>
+        <v>438347</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3187553443247336</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2927611204670892</v>
+        <v>0.2907930705875109</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3460675378842402</v>
+        <v>0.3468261771901852</v>
       </c>
     </row>
     <row r="30">
@@ -5834,19 +5834,19 @@
         <v>56525</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>42890</v>
+        <v>43064</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>71732</v>
+        <v>71510</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1113812512973101</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.08451376906714118</v>
+        <v>0.08485645308804157</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1413454613080629</v>
+        <v>0.1409069034462387</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>84</v>
@@ -5855,19 +5855,19 @@
         <v>92940</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>73855</v>
+        <v>75368</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>112953</v>
+        <v>114649</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1228734378254289</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.09764221823979644</v>
+        <v>0.09964192123283569</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1493325568218439</v>
+        <v>0.1515747625134951</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>136</v>
@@ -5876,19 +5876,19 @@
         <v>149465</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>123892</v>
+        <v>126097</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>172414</v>
+        <v>174514</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1182588955401591</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.09802486919884194</v>
+        <v>0.09976978680358098</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1364167011787851</v>
+        <v>0.1380781586368528</v>
       </c>
     </row>
     <row r="31">
@@ -5905,19 +5905,19 @@
         <v>6359</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>2760</v>
+        <v>2682</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>12939</v>
+        <v>13745</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.01252996414190695</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.005437604809939546</v>
+        <v>0.005284934013810881</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.02549563634398795</v>
+        <v>0.02708475959252873</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>18</v>
@@ -5926,19 +5926,19 @@
         <v>18836</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>11651</v>
+        <v>11504</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>28877</v>
+        <v>28674</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.02490274344219005</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.01540407495712089</v>
+        <v>0.01520893196860598</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.03817745907559403</v>
+        <v>0.03790943264182144</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>24</v>
@@ -5947,19 +5947,19 @@
         <v>25195</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>16561</v>
+        <v>16678</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>37301</v>
+        <v>35803</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.01993461025641476</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01310359539760077</v>
+        <v>0.01319608254890755</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.02951288445893769</v>
+        <v>0.02832805017134735</v>
       </c>
     </row>
     <row r="32">
@@ -5976,19 +5976,19 @@
         <v>3080</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>8299</v>
+        <v>9451</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.006068723662230493</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.00187596074850552</v>
+        <v>0.00186371086841459</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01635331090369125</v>
+        <v>0.01862331249210132</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>6</v>
@@ -5997,19 +5997,19 @@
         <v>6226</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2825</v>
+        <v>2322</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>13227</v>
+        <v>12996</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.008231390985812083</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.003734688428231752</v>
+        <v>0.003069425104619562</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01748755274865646</v>
+        <v>0.01718182824880506</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>9</v>
@@ -6018,19 +6018,19 @@
         <v>9306</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>4179</v>
+        <v>5065</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>16976</v>
+        <v>17711</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.007362999249459711</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.003306707537815561</v>
+        <v>0.004007758891792262</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01343128931979816</v>
+        <v>0.01401346827889731</v>
       </c>
     </row>
     <row r="33">
@@ -6122,19 +6122,19 @@
         <v>181022</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>164756</v>
+        <v>165075</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>194835</v>
+        <v>195140</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.6782830524746831</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.6173380376468053</v>
+        <v>0.6185314674536537</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.73004189642918</v>
+        <v>0.731185372226656</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>609</v>
@@ -6143,19 +6143,19 @@
         <v>644444</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>610644</v>
+        <v>612323</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>678585</v>
+        <v>679449</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.5819966200007747</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.5514719268343496</v>
+        <v>0.552988005174289</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.6128293943836037</v>
+        <v>0.6136097291179701</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>790</v>
@@ -6164,19 +6164,19 @@
         <v>825465</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>785417</v>
+        <v>789196</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>858703</v>
+        <v>861798</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.6006965796683822</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.5715532092867146</v>
+        <v>0.5743029124772018</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.6248839753115067</v>
+        <v>0.6271361754479484</v>
       </c>
     </row>
     <row r="35">
@@ -6193,19 +6193,19 @@
         <v>67526</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>53630</v>
+        <v>53357</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>83301</v>
+        <v>82519</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2530178138996572</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2009502600688468</v>
+        <v>0.1999275353823828</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3121280059789315</v>
+        <v>0.3091952194139542</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>316</v>
@@ -6214,19 +6214,19 @@
         <v>336410</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>305068</v>
+        <v>305832</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>367091</v>
+        <v>368691</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.303811194662988</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2755066080005971</v>
+        <v>0.2761970748856169</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3315196800305963</v>
+        <v>0.3329643769743726</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>383</v>
@@ -6235,19 +6235,19 @@
         <v>403935</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>372882</v>
+        <v>370143</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>442387</v>
+        <v>438808</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2939465216529759</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2713487428996315</v>
+        <v>0.2693556103679563</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3219282171004985</v>
+        <v>0.3193233907242157</v>
       </c>
     </row>
     <row r="36">
@@ -6264,19 +6264,19 @@
         <v>18335</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>10765</v>
+        <v>11088</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>27745</v>
+        <v>29106</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.06869913362565966</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.04033771044370142</v>
+        <v>0.04154484805212303</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1039596615422027</v>
+        <v>0.1090591979328996</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>93</v>
@@ -6285,19 +6285,19 @@
         <v>101074</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>81862</v>
+        <v>81809</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>120280</v>
+        <v>120662</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.09127971580212264</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.07392916681359436</v>
+        <v>0.07388171300111483</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1086248730669602</v>
+        <v>0.1089694822181543</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>110</v>
@@ -6306,19 +6306,19 @@
         <v>119408</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>99601</v>
+        <v>100546</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>144982</v>
+        <v>143551</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.08689430069096067</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.07247999590846875</v>
+        <v>0.07316801999192167</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1055044523422152</v>
+        <v>0.1044630375386084</v>
       </c>
     </row>
     <row r="37">
@@ -6348,19 +6348,19 @@
         <v>22388</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>14027</v>
+        <v>13845</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>33328</v>
+        <v>33143</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.02021821359255123</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.0126673695916737</v>
+        <v>0.01250310974777023</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.03009848965809455</v>
+        <v>0.02993140367728154</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>21</v>
@@ -6369,19 +6369,19 @@
         <v>22388</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>14083</v>
+        <v>14148</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>34158</v>
+        <v>34067</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.01629159829465623</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.01024805139964493</v>
+        <v>0.01029574579810479</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.02485725838296436</v>
+        <v>0.02479062162469307</v>
       </c>
     </row>
     <row r="38">
@@ -6411,19 +6411,19 @@
         <v>2983</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>7986</v>
+        <v>7936</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.002694255941563465</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.0008807462264623446</v>
+        <v>0.0008771804206924354</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.007212097132007495</v>
+        <v>0.007167175280108122</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>3</v>
@@ -6432,19 +6432,19 @@
         <v>2983</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>970</v>
+        <v>974</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>7976</v>
+        <v>8908</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.002170999693025009</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.0007055257146971611</v>
+        <v>0.0007088147687385213</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.005804370415245451</v>
+        <v>0.006482660673118087</v>
       </c>
     </row>
     <row r="39">
@@ -6536,19 +6536,19 @@
         <v>2088356</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>2027714</v>
+        <v>2029132</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>2148541</v>
+        <v>2139033</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.6128096347525085</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.59501474336741</v>
+        <v>0.5954309090844934</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.6304704267471065</v>
+        <v>0.6276804446473218</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>1906</v>
@@ -6557,19 +6557,19 @@
         <v>2042820</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>1985222</v>
+        <v>1973801</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>2108568</v>
+        <v>2102418</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.5772429622413109</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.5609673119645232</v>
+        <v>0.5577399976530667</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.5958215531801173</v>
+        <v>0.5940835119619495</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>3882</v>
@@ -6578,19 +6578,19 @@
         <v>4131176</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>4053578</v>
+        <v>4045757</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>4215797</v>
+        <v>4214572</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.5946907188219284</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.5835203323374776</v>
+        <v>0.5823945358123193</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.6068720375725466</v>
+        <v>0.6066957283289656</v>
       </c>
     </row>
     <row r="41">
@@ -6607,19 +6607,19 @@
         <v>938713</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>886413</v>
+        <v>885641</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>994093</v>
+        <v>988934</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2754571225242354</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2601100928204414</v>
+        <v>0.2598836447722712</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2917077343113147</v>
+        <v>0.2901940716943325</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>993</v>
@@ -6628,19 +6628,19 @@
         <v>1077343</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>1014983</v>
+        <v>1027371</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>1131515</v>
+        <v>1140341</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.3044264741580186</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.2868053763068807</v>
+        <v>0.2903058204467885</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.3197341107419182</v>
+        <v>0.3222279571433748</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>1857</v>
@@ -6649,19 +6649,19 @@
         <v>2016056</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1938614</v>
+        <v>1942804</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>2096031</v>
+        <v>2101416</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2902151307874677</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.2790671850914936</v>
+        <v>0.2796703558069662</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.3017276559692255</v>
+        <v>0.3025029107129535</v>
       </c>
     </row>
     <row r="42">
@@ -6678,19 +6678,19 @@
         <v>315957</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>281723</v>
+        <v>282270</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>350225</v>
+        <v>354362</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.09271466581877481</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.08266925380290423</v>
+        <v>0.08282969256677525</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1027704864294931</v>
+        <v>0.1039843499065412</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>294</v>
@@ -6699,19 +6699,19 @@
         <v>324713</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>293437</v>
+        <v>286464</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>365898</v>
+        <v>360146</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.09175457026240585</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.0829169200911242</v>
+        <v>0.08094659479812125</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1033923364253514</v>
+        <v>0.1017669674666041</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>585</v>
@@ -6720,19 +6720,19 @@
         <v>640669</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>592234</v>
+        <v>591199</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>690997</v>
+        <v>691836</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.09222555931982708</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.08525321549307653</v>
+        <v>0.08510428624436479</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.09947031642528667</v>
+        <v>0.09959114748368125</v>
       </c>
     </row>
     <row r="43">
@@ -6749,19 +6749,19 @@
         <v>49774</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>37389</v>
+        <v>38447</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>66408</v>
+        <v>65693</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.01460579120388861</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.01097135695246839</v>
+        <v>0.01128190040796792</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.01948694849153488</v>
+        <v>0.01927691212570961</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>66</v>
@@ -6770,19 +6770,19 @@
         <v>71490</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>55053</v>
+        <v>56475</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>90839</v>
+        <v>91761</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.02020106599299836</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.01555631206557834</v>
+        <v>0.01595809392079841</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.02566838388904621</v>
+        <v>0.02592903247906597</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>112</v>
@@ -6791,19 +6791,19 @@
         <v>121264</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>100122</v>
+        <v>100773</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>145859</v>
+        <v>147356</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.01745622129347475</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.0144127172175807</v>
+        <v>0.01450648609074497</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.02099668556479287</v>
+        <v>0.02121212998697646</v>
       </c>
     </row>
     <row r="44">
@@ -6820,19 +6820,19 @@
         <v>15038</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>8047</v>
+        <v>8442</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>24625</v>
+        <v>25336</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.004412785700592697</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.002361274901074814</v>
+        <v>0.002477103817001215</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.007226000893128161</v>
+        <v>0.007434757629135635</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>21</v>
@@ -6841,19 +6841,19 @@
         <v>22560</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>13760</v>
+        <v>14493</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>33783</v>
+        <v>32675</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.006374927345266312</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.003888084849412469</v>
+        <v>0.004095253669811284</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.009546116119186349</v>
+        <v>0.009233118091116804</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>35</v>
@@ -6862,19 +6862,19 @@
         <v>37598</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>27195</v>
+        <v>27191</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>51897</v>
+        <v>51341</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.005412369777302105</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.003914777456900792</v>
+        <v>0.003914239945738217</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.007470602001798471</v>
+        <v>0.007390605112499233</v>
       </c>
     </row>
     <row r="45">
@@ -7208,19 +7208,19 @@
         <v>258812</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>238943</v>
+        <v>237796</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>281086</v>
+        <v>278720</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6043796932553752</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5579810259478145</v>
+        <v>0.5553032313187831</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6563956119147802</v>
+        <v>0.6508691286081325</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>190</v>
@@ -7229,19 +7229,19 @@
         <v>195562</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>178509</v>
+        <v>175797</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>214708</v>
+        <v>214208</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5650112999094207</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5157413702012432</v>
+        <v>0.5079053821322443</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6203271978442623</v>
+        <v>0.618881196252102</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>428</v>
@@ -7250,19 +7250,19 @@
         <v>454374</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>428437</v>
+        <v>426140</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>484196</v>
+        <v>480906</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5867826721528532</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5532875002323338</v>
+        <v>0.5503215329610751</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.625294449501251</v>
+        <v>0.6210460217255945</v>
       </c>
     </row>
     <row r="5">
@@ -7279,19 +7279,19 @@
         <v>123837</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>104878</v>
+        <v>105834</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>144712</v>
+        <v>144198</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2891857322540896</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2449126295568391</v>
+        <v>0.2471439738020224</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3379336489450811</v>
+        <v>0.336731952182745</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>108</v>
@@ -7300,19 +7300,19 @@
         <v>115001</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>97209</v>
+        <v>97398</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>131996</v>
+        <v>132251</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3322574982200227</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2808518568641575</v>
+        <v>0.2814000562182224</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3813589135122069</v>
+        <v>0.3820959981045648</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>224</v>
@@ -7321,19 +7321,19 @@
         <v>238838</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>209305</v>
+        <v>212555</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>263758</v>
+        <v>265637</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3084380997044188</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2702986152468102</v>
+        <v>0.2744960215879416</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3406193430930403</v>
+        <v>0.3430461946026264</v>
       </c>
     </row>
     <row r="6">
@@ -7350,19 +7350,19 @@
         <v>39566</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>28436</v>
+        <v>28763</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>53760</v>
+        <v>54394</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.09239393770722315</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.06640384478896272</v>
+        <v>0.06716837394974666</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1255400000798761</v>
+        <v>0.1270225177651891</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>29</v>
@@ -7371,19 +7371,19 @@
         <v>31440</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>21229</v>
+        <v>21477</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>42892</v>
+        <v>44574</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.0908354161000023</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.06133395694893291</v>
+        <v>0.06205116351781777</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1239225824450248</v>
+        <v>0.1287813548969049</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>65</v>
@@ -7392,19 +7392,19 @@
         <v>71006</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>56515</v>
+        <v>55514</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>90558</v>
+        <v>88310</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.0916973043097157</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.07298365173104281</v>
+        <v>0.07169168184607147</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1169474553596944</v>
+        <v>0.114044724378092</v>
       </c>
     </row>
     <row r="7">
@@ -7421,19 +7421,19 @@
         <v>5008</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1418</v>
+        <v>1397</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>12282</v>
+        <v>12354</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01169505638769337</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.003311457266749652</v>
+        <v>0.003261734507071371</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0286800911924615</v>
+        <v>0.02884849802068887</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -7442,19 +7442,19 @@
         <v>4117</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1086</v>
+        <v>1089</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>10342</v>
+        <v>10288</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01189578577055426</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.003137131406107325</v>
+        <v>0.003147343942257519</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02987971381027259</v>
+        <v>0.02972281465192081</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>8</v>
@@ -7463,19 +7463,19 @@
         <v>9126</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3910</v>
+        <v>4522</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>17472</v>
+        <v>18142</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01178477910396119</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.005049087389055014</v>
+        <v>0.005839586404404597</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02256352146482161</v>
+        <v>0.02342932019772757</v>
       </c>
     </row>
     <row r="8">
@@ -7495,7 +7495,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5024</v>
+        <v>5302</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.002345580395618717</v>
@@ -7504,7 +7504,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01173185502931633</v>
+        <v>0.01238020615470003</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>0</v>
@@ -7529,7 +7529,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>6522</v>
+        <v>5801</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.001297144729051037</v>
@@ -7538,7 +7538,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.008422659730715348</v>
+        <v>0.007491422201709723</v>
       </c>
     </row>
     <row r="9">
@@ -7630,19 +7630,19 @@
         <v>225941</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>205911</v>
+        <v>204555</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>244207</v>
+        <v>244561</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.601178021963705</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5478841707254727</v>
+        <v>0.544276471612514</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.649780843593058</v>
+        <v>0.6507234597350006</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>200</v>
@@ -7651,19 +7651,19 @@
         <v>211357</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>193854</v>
+        <v>193340</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>233231</v>
+        <v>231902</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5717618278812655</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5244111541690455</v>
+        <v>0.5230217962096272</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.630933065232984</v>
+        <v>0.6273389604577094</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>414</v>
@@ -7672,19 +7672,19 @@
         <v>437298</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>406839</v>
+        <v>412289</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>464581</v>
+        <v>468570</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5865916651029506</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5457337888328507</v>
+        <v>0.5530447998198216</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6231887605116186</v>
+        <v>0.6285392473713148</v>
       </c>
     </row>
     <row r="11">
@@ -7701,19 +7701,19 @@
         <v>94362</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>78566</v>
+        <v>78133</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>114006</v>
+        <v>113923</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2510772976173143</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2090460645396076</v>
+        <v>0.2078956259008399</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3033436370834996</v>
+        <v>0.3031246594848598</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>114</v>
@@ -7722,19 +7722,19 @@
         <v>119867</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>100556</v>
+        <v>100254</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>137426</v>
+        <v>139052</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3242628973287691</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2720238621241018</v>
+        <v>0.2712065106563778</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3717626318546935</v>
+        <v>0.3761614112513479</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>202</v>
@@ -7743,19 +7743,19 @@
         <v>214229</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>190604</v>
+        <v>189495</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>241317</v>
+        <v>241864</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2873672157307143</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2556759516990276</v>
+        <v>0.2541882886464935</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.323702238247999</v>
+        <v>0.3244368584422573</v>
       </c>
     </row>
     <row r="12">
@@ -7772,19 +7772,19 @@
         <v>49257</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>36848</v>
+        <v>35817</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>63157</v>
+        <v>63202</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1310623952283263</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.09804389013619143</v>
+        <v>0.09530226358335968</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1680477802889216</v>
+        <v>0.1681668755536458</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>29</v>
@@ -7793,19 +7793,19 @@
         <v>31326</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>21578</v>
+        <v>21256</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>44366</v>
+        <v>43328</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.08474228980688331</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.05837338743084357</v>
+        <v>0.05750172402223255</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1200191801600358</v>
+        <v>0.1172090856347736</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>74</v>
@@ -7814,19 +7814,19 @@
         <v>80583</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>64896</v>
+        <v>63551</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>100199</v>
+        <v>99756</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1080940402599223</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.08705101061184496</v>
+        <v>0.08524728740496225</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1344075373121819</v>
+        <v>0.1338128489356085</v>
       </c>
     </row>
     <row r="13">
@@ -7843,19 +7843,19 @@
         <v>4084</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>9560</v>
+        <v>10064</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01086670537605157</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.002717577823663293</v>
+        <v>0.002711472891165488</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02543712199020625</v>
+        <v>0.02677821510045277</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>7</v>
@@ -7864,19 +7864,19 @@
         <v>7110</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2946</v>
+        <v>2876</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>12959</v>
+        <v>13270</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01923298498308212</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.00797030219263324</v>
+        <v>0.007779020153706875</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03505671656582401</v>
+        <v>0.03589900257717509</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>11</v>
@@ -7885,19 +7885,19 @@
         <v>11194</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>6127</v>
+        <v>5730</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>19017</v>
+        <v>18952</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01501522097269874</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.008218780202995647</v>
+        <v>0.007686097305337408</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02550962868742566</v>
+        <v>0.02542193345600947</v>
       </c>
     </row>
     <row r="14">
@@ -7917,7 +7917,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>6806</v>
+        <v>7897</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.005815579814602729</v>
@@ -7926,7 +7926,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01810989944159688</v>
+        <v>0.0210109970818452</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>0</v>
@@ -7951,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>7829</v>
+        <v>6869</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.002931857933714154</v>
@@ -7960,7 +7960,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01050245991836245</v>
+        <v>0.009214449505304548</v>
       </c>
     </row>
     <row r="15">
@@ -8052,19 +8052,19 @@
         <v>261754</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>238254</v>
+        <v>238541</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>285495</v>
+        <v>285488</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5015271877093327</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4564996898863005</v>
+        <v>0.457050919547377</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5470162783240873</v>
+        <v>0.5470011756135251</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>82</v>
@@ -8073,19 +8073,19 @@
         <v>85479</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>71970</v>
+        <v>73421</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>97941</v>
+        <v>98800</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.519380781023162</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4372984159559289</v>
+        <v>0.4461166834424308</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5951025772644389</v>
+        <v>0.600320382817373</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>335</v>
@@ -8094,19 +8094,19 @@
         <v>347233</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>321073</v>
+        <v>320977</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>375693</v>
+        <v>374398</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.505807377318728</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4677016095110514</v>
+        <v>0.4675608407087956</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5472653007186981</v>
+        <v>0.5453787414965997</v>
       </c>
     </row>
     <row r="17">
@@ -8123,19 +8123,19 @@
         <v>168107</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>147464</v>
+        <v>149129</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>187609</v>
+        <v>191823</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3220978150008372</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2825440495091303</v>
+        <v>0.2857353220510865</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3594643525473399</v>
+        <v>0.3675383506138848</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>43</v>
@@ -8144,19 +8144,19 @@
         <v>45859</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>35028</v>
+        <v>35041</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>58578</v>
+        <v>58925</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2786485851926018</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2128373808867725</v>
+        <v>0.2129144480157094</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.355926061339327</v>
+        <v>0.3580398931766943</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>205</v>
@@ -8165,19 +8165,19 @@
         <v>213967</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>189685</v>
+        <v>189282</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>239942</v>
+        <v>239834</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3116813717284688</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2763112307693329</v>
+        <v>0.2757231056090615</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3495196040012443</v>
+        <v>0.349361055892725</v>
       </c>
     </row>
     <row r="18">
@@ -8194,19 +8194,19 @@
         <v>78177</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>62010</v>
+        <v>62952</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>97532</v>
+        <v>97735</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.149788731968703</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1188122504492691</v>
+        <v>0.1206179901771494</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1868734544702851</v>
+        <v>0.1872630401210969</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>21</v>
@@ -8215,19 +8215,19 @@
         <v>25432</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>16166</v>
+        <v>16342</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>37351</v>
+        <v>37612</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1545299717077939</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.09822960676532319</v>
+        <v>0.09929473520533541</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2269521352631456</v>
+        <v>0.2285382273244415</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>94</v>
@@ -8236,19 +8236,19 @@
         <v>103609</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>84757</v>
+        <v>85257</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>124808</v>
+        <v>123365</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1509253885907171</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1234642074935335</v>
+        <v>0.124192240106768</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1818060080784756</v>
+        <v>0.1797030144167139</v>
       </c>
     </row>
     <row r="19">
@@ -8265,19 +8265,19 @@
         <v>11254</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5801</v>
+        <v>5778</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>18808</v>
+        <v>19165</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02156375319515264</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0111142501715868</v>
+        <v>0.01107105988259061</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03603565686811302</v>
+        <v>0.03672088157729052</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>4</v>
@@ -8286,19 +8286,19 @@
         <v>5466</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1448</v>
+        <v>1437</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>13554</v>
+        <v>12660</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03321432285581038</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.008799006536664612</v>
+        <v>0.00873104147043131</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08235452024464664</v>
+        <v>0.07692185398428356</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>16</v>
@@ -8307,19 +8307,19 @@
         <v>16721</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>9789</v>
+        <v>9974</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>26811</v>
+        <v>27741</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02435684063298832</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0142598996530075</v>
+        <v>0.01452937164063886</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03905437071206787</v>
+        <v>0.04041010500598147</v>
       </c>
     </row>
     <row r="20">
@@ -8339,7 +8339,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>9495</v>
+        <v>9815</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.00502251212597436</v>
@@ -8348,7 +8348,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01819262653847404</v>
+        <v>0.0188054283099331</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2</v>
@@ -8360,7 +8360,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>7551</v>
+        <v>7856</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01422633922063192</v>
@@ -8369,7 +8369,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.04587943410629513</v>
+        <v>0.04773337711369072</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>4</v>
@@ -8378,19 +8378,19 @@
         <v>4963</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1343</v>
+        <v>1335</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>12795</v>
+        <v>12567</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.007229021729097786</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0019562878680974</v>
+        <v>0.001944897941697839</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01863818966104653</v>
+        <v>0.0183063235056222</v>
       </c>
     </row>
     <row r="21">
@@ -8482,19 +8482,19 @@
         <v>598484</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>561041</v>
+        <v>562574</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>630604</v>
+        <v>634829</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5223033599146706</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4896260752568976</v>
+        <v>0.4909638531718141</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5503344786710447</v>
+        <v>0.5540217694755482</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>433</v>
@@ -8503,19 +8503,19 @@
         <v>448230</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>419128</v>
+        <v>419803</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>477029</v>
+        <v>476471</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.544006603330106</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5086860944303179</v>
+        <v>0.5095049706894411</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5789597853273276</v>
+        <v>0.5782817549498014</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1009</v>
@@ -8524,19 +8524,19 @@
         <v>1046714</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1003071</v>
+        <v>997575</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1095974</v>
+        <v>1088358</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5313815538560777</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5092255139490077</v>
+        <v>0.5064352780861705</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5563890122958244</v>
+        <v>0.5525224072800061</v>
       </c>
     </row>
     <row r="23">
@@ -8553,19 +8553,19 @@
         <v>374062</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>341472</v>
+        <v>339387</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>407464</v>
+        <v>407718</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3264473665601108</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2980063833663006</v>
+        <v>0.2961860353950362</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3555983149210215</v>
+        <v>0.3558192710996101</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>240</v>
@@ -8574,19 +8574,19 @@
         <v>247210</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>220161</v>
+        <v>222796</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>273976</v>
+        <v>275522</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3000329211607861</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2672039189070127</v>
+        <v>0.2704029464946558</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3325181720314172</v>
+        <v>0.3343948291745077</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>597</v>
@@ -8595,19 +8595,19 @@
         <v>621271</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>580442</v>
+        <v>579899</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>663742</v>
+        <v>664174</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.315398536042031</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2946709396597774</v>
+        <v>0.2943950016514679</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3369592696707631</v>
+        <v>0.3371784859495483</v>
       </c>
     </row>
     <row r="24">
@@ -8624,19 +8624,19 @@
         <v>148198</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>127546</v>
+        <v>125166</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>172529</v>
+        <v>174731</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1293334649220438</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1113109070056373</v>
+        <v>0.1092337461097899</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1505674219223115</v>
+        <v>0.1524891759942656</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>105</v>
@@ -8645,19 +8645,19 @@
         <v>108820</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>89284</v>
+        <v>90711</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>130232</v>
+        <v>128409</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1320723310903568</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1083618427865888</v>
+        <v>0.1100936899088745</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1580601347459373</v>
+        <v>0.1558467147725336</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>247</v>
@@ -8666,19 +8666,19 @@
         <v>257017</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>227817</v>
+        <v>227605</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>290543</v>
+        <v>288710</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1304790982165504</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1156547778946397</v>
+        <v>0.1155472762598736</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1474987040189023</v>
+        <v>0.1465683700530409</v>
       </c>
     </row>
     <row r="25">
@@ -8695,19 +8695,19 @@
         <v>21958</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>13869</v>
+        <v>14901</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>32460</v>
+        <v>33959</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01916277106784691</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01210364506027905</v>
+        <v>0.01300412437491222</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02832826337207488</v>
+        <v>0.02963593255125641</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>14</v>
@@ -8716,19 +8716,19 @@
         <v>15332</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>9075</v>
+        <v>8350</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>24770</v>
+        <v>24189</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01860758305504296</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01101445933585345</v>
+        <v>0.01013417353785066</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03006330073501674</v>
+        <v>0.0293580973881314</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>36</v>
@@ -8737,19 +8737,19 @@
         <v>37289</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>26513</v>
+        <v>26488</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>50880</v>
+        <v>49762</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01893054290002412</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.013459683224953</v>
+        <v>0.01344711953756278</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02583011799107396</v>
+        <v>0.02526253474445314</v>
       </c>
     </row>
     <row r="26">
@@ -8766,19 +8766,19 @@
         <v>3155</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>8528</v>
+        <v>8546</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.002753037535327896</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.0007564149431210427</v>
+        <v>0.0007511741623674047</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.007442124114269247</v>
+        <v>0.007458307255301804</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4</v>
@@ -8787,19 +8787,19 @@
         <v>4351</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1153</v>
+        <v>1156</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>10885</v>
+        <v>11015</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.005280561363708163</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.001399745597991529</v>
+        <v>0.001402914266113522</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01321073640987048</v>
+        <v>0.01336868651303919</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>7</v>
@@ -8808,19 +8808,19 @@
         <v>7505</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3059</v>
+        <v>3045</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>15099</v>
+        <v>14606</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.003810268985316835</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.001553021727508761</v>
+        <v>0.001545764941862376</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.007665332717844169</v>
+        <v>0.007415187180338015</v>
       </c>
     </row>
     <row r="27">
@@ -8912,19 +8912,19 @@
         <v>298122</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>275984</v>
+        <v>272810</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>324752</v>
+        <v>323732</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.4811161253782725</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4453883447323581</v>
+        <v>0.4402669146930364</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5240913286682161</v>
+        <v>0.5224453700967735</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>345</v>
@@ -8933,19 +8933,19 @@
         <v>364637</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>336526</v>
+        <v>336962</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>391602</v>
+        <v>391661</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.4945435855346292</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.4564182830968773</v>
+        <v>0.4570087289168771</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5311152211284496</v>
+        <v>0.5311953376108589</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>630</v>
@@ -8954,19 +8954,19 @@
         <v>662759</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>625439</v>
+        <v>624425</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>698806</v>
+        <v>699951</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.4884120518094292</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.460909334997276</v>
+        <v>0.4601623816217144</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5149761336742602</v>
+        <v>0.5158205349345613</v>
       </c>
     </row>
     <row r="29">
@@ -8983,19 +8983,19 @@
         <v>211475</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>190330</v>
+        <v>188290</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>234477</v>
+        <v>236373</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3412826490411118</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3071590898561271</v>
+        <v>0.3038666151054966</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3784045396251884</v>
+        <v>0.3814645331891857</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>225</v>
@@ -9004,19 +9004,19 @@
         <v>236798</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>209981</v>
+        <v>210337</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>260204</v>
+        <v>264929</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3211604406523434</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2847888807820131</v>
+        <v>0.2852728892595373</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3529049829563407</v>
+        <v>0.359313744873361</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>427</v>
@@ -9025,19 +9025,19 @@
         <v>448273</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>412302</v>
+        <v>415526</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>481136</v>
+        <v>483601</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3303490733441952</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3038407421714099</v>
+        <v>0.3062166625122292</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.354567461901386</v>
+        <v>0.3563837386362696</v>
       </c>
     </row>
     <row r="30">
@@ -9054,19 +9054,19 @@
         <v>91270</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>75058</v>
+        <v>75589</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>109856</v>
+        <v>110566</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1472933385947432</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.121130202523827</v>
+        <v>0.1219870037549624</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1772875281061078</v>
+        <v>0.1784341299460254</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>103</v>
@@ -9075,19 +9075,19 @@
         <v>108179</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>89295</v>
+        <v>91133</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>127025</v>
+        <v>129838</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1467192354700177</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1211078519857001</v>
+        <v>0.1236000988385187</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1722786660475421</v>
+        <v>0.1760938439242712</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>193</v>
@@ -9096,19 +9096,19 @@
         <v>199449</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>173744</v>
+        <v>175312</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>225217</v>
+        <v>228322</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1469813947041548</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1280387638503462</v>
+        <v>0.129193667412957</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1659710696386382</v>
+        <v>0.1682590019191783</v>
       </c>
     </row>
     <row r="31">
@@ -9125,19 +9125,19 @@
         <v>17808</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>11005</v>
+        <v>10829</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>27511</v>
+        <v>27248</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.02873813712659049</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01776008193621455</v>
+        <v>0.01747529705343218</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.04439756889583051</v>
+        <v>0.04397324757116142</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>19</v>
@@ -9146,19 +9146,19 @@
         <v>20742</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>13130</v>
+        <v>12599</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>30808</v>
+        <v>30713</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.02813188849412197</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.0178076322321332</v>
+        <v>0.01708785555676221</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.041783387131593</v>
+        <v>0.04165448090605781</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>37</v>
@@ -9167,19 +9167,19 @@
         <v>38550</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>27494</v>
+        <v>27848</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>52757</v>
+        <v>51918</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.02840872669677173</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.02026167227143342</v>
+        <v>0.02052207123796666</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.03887853341291987</v>
+        <v>0.03826025048010424</v>
       </c>
     </row>
     <row r="32">
@@ -9199,7 +9199,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>4899</v>
+        <v>5614</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.001569749859281902</v>
@@ -9208,7 +9208,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.007906115284442098</v>
+        <v>0.009060645357525718</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>6</v>
@@ -9217,19 +9217,19 @@
         <v>6964</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2967</v>
+        <v>2925</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>15538</v>
+        <v>14693</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.009444849848887785</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.004023758736222525</v>
+        <v>0.003967568036814048</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02107377481764492</v>
+        <v>0.01992809699146667</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>7</v>
@@ -9238,19 +9238,19 @@
         <v>7937</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>3074</v>
+        <v>3193</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>16360</v>
+        <v>15727</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.005848753445449102</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.002265256648387839</v>
+        <v>0.002352674496561532</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01205627246798937</v>
+        <v>0.01159001167100767</v>
       </c>
     </row>
     <row r="33">
@@ -9342,19 +9342,19 @@
         <v>177113</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>159905</v>
+        <v>160458</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>193800</v>
+        <v>192517</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.6188559014252006</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.5587288865567842</v>
+        <v>0.5606624417475937</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.6771619288795625</v>
+        <v>0.672680999085538</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>518</v>
@@ -9363,19 +9363,19 @@
         <v>557163</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>521469</v>
+        <v>523285</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>591120</v>
+        <v>588774</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.5164387805405982</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.4833532249884288</v>
+        <v>0.485037249617515</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.5479137476053423</v>
+        <v>0.5457389493410951</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>686</v>
@@ -9384,19 +9384,19 @@
         <v>734276</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>689830</v>
+        <v>698002</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>772421</v>
+        <v>775311</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.5379113570051024</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.5053516670646714</v>
+        <v>0.5113382793287394</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.5658553806123506</v>
+        <v>0.5679729330699254</v>
       </c>
     </row>
     <row r="35">
@@ -9413,19 +9413,19 @@
         <v>76046</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>60962</v>
+        <v>63054</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>92038</v>
+        <v>91345</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2657131365043078</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.213008734089879</v>
+        <v>0.2203192040252031</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3215919406282309</v>
+        <v>0.3191705869248991</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>301</v>
@@ -9434,19 +9434,19 @@
         <v>329171</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>298388</v>
+        <v>299450</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>362249</v>
+        <v>363518</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.3051108522940169</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2765779962062826</v>
+        <v>0.2775625902203466</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3357710237511177</v>
+        <v>0.3369477714775247</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>373</v>
@@ -9455,19 +9455,19 @@
         <v>405216</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>370873</v>
+        <v>369419</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>443784</v>
+        <v>439409</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2968508030218398</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2716915904864554</v>
+        <v>0.2706267289009296</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3251049238389178</v>
+        <v>0.3218994645643258</v>
       </c>
     </row>
     <row r="36">
@@ -9484,19 +9484,19 @@
         <v>29040</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>20779</v>
+        <v>19747</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>41174</v>
+        <v>41408</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1014699187440941</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.07260421307614692</v>
+        <v>0.06899850808418755</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1438691283975817</v>
+        <v>0.1446851475022791</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>148</v>
@@ -9505,19 +9505,19 @@
         <v>166774</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>142251</v>
+        <v>143587</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>189430</v>
+        <v>192013</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1545844308614907</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1318531428359132</v>
+        <v>0.1330919277879004</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1755843624462241</v>
+        <v>0.1779783208267879</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>175</v>
@@ -9526,19 +9526,19 @@
         <v>195814</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>171997</v>
+        <v>170872</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>223961</v>
+        <v>223513</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1434485444690125</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1260006106477235</v>
+        <v>0.1251767080836917</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1640679473150187</v>
+        <v>0.163739500983111</v>
       </c>
     </row>
     <row r="37">
@@ -9555,19 +9555,19 @@
         <v>3996</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>1041</v>
+        <v>1018</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>9772</v>
+        <v>9127</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.01396104332639751</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.003637202096467235</v>
+        <v>0.003555282132332708</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.03414546466195442</v>
+        <v>0.03188952789185123</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>17</v>
@@ -9576,19 +9576,19 @@
         <v>20056</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>11928</v>
+        <v>12177</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>31581</v>
+        <v>31397</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.01858991751118164</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.01105626497329906</v>
+        <v>0.01128723388841233</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.0292730324226755</v>
+        <v>0.0291017637943112</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>21</v>
@@ -9597,19 +9597,19 @@
         <v>24051</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>15606</v>
+        <v>14590</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>35761</v>
+        <v>35585</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.01761943665779641</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.01143269361425801</v>
+        <v>0.01068800876756601</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.02619785374653807</v>
+        <v>0.02606862323918351</v>
       </c>
     </row>
     <row r="38">
@@ -9639,19 +9639,19 @@
         <v>5692</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>2237</v>
+        <v>2082</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>13123</v>
+        <v>13036</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.005276018792712634</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.00207344811464151</v>
+        <v>0.001929471301230077</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.01216362893244743</v>
+        <v>0.01208330566797789</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>5</v>
@@ -9660,19 +9660,19 @@
         <v>5692</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>2110</v>
+        <v>2088</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>12904</v>
+        <v>12215</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.004169858846248882</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.001545454253794173</v>
+        <v>0.001529806973995322</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.009453319197171508</v>
+        <v>0.008948026585380854</v>
       </c>
     </row>
     <row r="39">
@@ -9764,19 +9764,19 @@
         <v>1820226</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1757831</v>
+        <v>1764056</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>1878626</v>
+        <v>1889161</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.5389001886490729</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.520427515112443</v>
+        <v>0.5222705081048084</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.5561901334016861</v>
+        <v>0.5593091780607914</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>1768</v>
@@ -9785,19 +9785,19 @@
         <v>1862428</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>1800549</v>
+        <v>1799485</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>1920526</v>
+        <v>1919089</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.5290272337302087</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.5114505806524868</v>
+        <v>0.5111483128555687</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.5455301013849604</v>
+        <v>0.5451219025681525</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>3502</v>
@@ -9806,19 +9806,19 @@
         <v>3682654</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>3585984</v>
+        <v>3592355</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>3765260</v>
+        <v>3766957</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.5338615141672675</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.5198476871253095</v>
+        <v>0.5207712923428621</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.5458366354235565</v>
+        <v>0.5460826302284999</v>
       </c>
     </row>
     <row r="41">
@@ -9835,19 +9835,19 @@
         <v>1047889</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>994342</v>
+        <v>993816</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>1106250</v>
+        <v>1104469</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.3102403322937168</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2943872699486049</v>
+        <v>0.2942312758592734</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.3275189987694324</v>
+        <v>0.3269915410510369</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>1031</v>
@@ -9856,19 +9856,19 @@
         <v>1093906</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>1038996</v>
+        <v>1042453</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>1151637</v>
+        <v>1148606</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.3107266818994029</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.2951295090844395</v>
+        <v>0.2961114545995082</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.3271253976570401</v>
+        <v>0.3262643228572161</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>2028</v>
@@ -9877,19 +9877,19 @@
         <v>2141795</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>2069161</v>
+        <v>2064229</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>2230931</v>
+        <v>2223878</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.3104885414031015</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.2999590255048925</v>
+        <v>0.299244098301431</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.3234103716519774</v>
+        <v>0.3223878645582651</v>
       </c>
     </row>
     <row r="42">
@@ -9906,19 +9906,19 @@
         <v>435507</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>398787</v>
+        <v>394436</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>478281</v>
+        <v>476182</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1289372093114632</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1180656852439774</v>
+        <v>0.1167775644578915</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.141600867987716</v>
+        <v>0.1409794786245577</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>435</v>
@@ -9927,19 +9927,19 @@
         <v>471971</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>436617</v>
+        <v>431254</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>516436</v>
+        <v>514172</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1340646358561825</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1240220755176491</v>
+        <v>0.1224988134241887</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1466948127180498</v>
+        <v>0.1460518753603183</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>848</v>
@@ -9948,19 +9948,19 @@
         <v>907478</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>850632</v>
+        <v>844790</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>967461</v>
+        <v>962006</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1315539976489492</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1233131975913514</v>
+        <v>0.1224663350598843</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1402493982533713</v>
+        <v>0.1394586863049244</v>
       </c>
     </row>
     <row r="43">
@@ -9977,19 +9977,19 @@
         <v>64107</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>48909</v>
+        <v>50066</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>80498</v>
+        <v>82955</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.01897979442117534</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.01448024472916774</v>
+        <v>0.01482257323613747</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.02383228659968816</v>
+        <v>0.02455984372839877</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>65</v>
@@ -9998,19 +9998,19 @@
         <v>72823</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>57034</v>
+        <v>57565</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>95389</v>
+        <v>91042</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.02068555477031291</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.01620056336659856</v>
+        <v>0.01635149936319425</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.02709553988583662</v>
+        <v>0.02586072703007238</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>129</v>
@@ -10019,19 +10019,19 @@
         <v>136930</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>113521</v>
+        <v>114933</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>161685</v>
+        <v>162270</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.01985033127806436</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.0164567259085707</v>
+        <v>0.01666144700048592</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.02343887892437239</v>
+        <v>0.02352369995127411</v>
       </c>
     </row>
     <row r="44">
@@ -10048,19 +10048,19 @@
         <v>9939</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>4855</v>
+        <v>4623</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>18261</v>
+        <v>18091</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.002942475324571827</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.001437329820613771</v>
+        <v>0.001368610186902036</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.005406521824617459</v>
+        <v>0.005356063760989103</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>17</v>
@@ -10069,19 +10069,19 @@
         <v>19348</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>11576</v>
+        <v>11317</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>30713</v>
+        <v>30996</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.0054958937438931</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.003288079882152858</v>
+        <v>0.003214681133508464</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.008724050146068866</v>
+        <v>0.008804390369910082</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>26</v>
@@ -10090,19 +10090,19 @@
         <v>29287</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>18948</v>
+        <v>18587</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>41758</v>
+        <v>41935</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.00424561550261755</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.002746824447500153</v>
+        <v>0.002694465937126138</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.006053525105718269</v>
+        <v>0.006079104734108634</v>
       </c>
     </row>
     <row r="45">
@@ -10436,19 +10436,19 @@
         <v>360047</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>333372</v>
+        <v>338150</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>380530</v>
+        <v>382935</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.6550402555331855</v>
+        <v>0.6550402555331853</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6065085919150645</v>
+        <v>0.6152022805621598</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6923039076292324</v>
+        <v>0.6966800170043632</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>483</v>
@@ -10457,19 +10457,19 @@
         <v>346164</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>326705</v>
+        <v>327467</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>363228</v>
+        <v>364489</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7087556255224605</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6689136914609799</v>
+        <v>0.6704748657050731</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7436935141648144</v>
+        <v>0.7462758553226889</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>830</v>
@@ -10478,19 +10478,19 @@
         <v>706212</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>676855</v>
+        <v>677942</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>736504</v>
+        <v>732515</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.6803133330080646</v>
+        <v>0.6803133330080647</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6520334393226387</v>
+        <v>0.6530803817046523</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.709494922305932</v>
+        <v>0.7056519071902039</v>
       </c>
     </row>
     <row r="5">
@@ -10507,19 +10507,19 @@
         <v>143672</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>126492</v>
+        <v>123327</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>169402</v>
+        <v>164425</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2613842379690033</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2301295467231448</v>
+        <v>0.2243706363089932</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.308195201762545</v>
+        <v>0.2991413001216284</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>160</v>
@@ -10528,19 +10528,19 @@
         <v>111816</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>95985</v>
+        <v>96593</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>129329</v>
+        <v>129946</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2289374596896684</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1965244588824138</v>
+        <v>0.1977695787563391</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2647954280696614</v>
+        <v>0.2660594891990264</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>318</v>
@@ -10549,19 +10549,19 @@
         <v>255487</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>229177</v>
+        <v>230023</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>282626</v>
+        <v>283027</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.2461180312682474</v>
+        <v>0.2461180312682473</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2207730144421721</v>
+        <v>0.2215871570723457</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2722611346549291</v>
+        <v>0.2726476984849446</v>
       </c>
     </row>
     <row r="6">
@@ -10578,19 +10578,19 @@
         <v>31466</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>21937</v>
+        <v>22082</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>43112</v>
+        <v>44089</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.0572473961488234</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03991107465220833</v>
+        <v>0.04017423990024883</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.07843457982333366</v>
+        <v>0.08021149768165417</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>23</v>
@@ -10599,19 +10599,19 @@
         <v>16187</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>10157</v>
+        <v>10658</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>25220</v>
+        <v>26060</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.03314294364685498</v>
+        <v>0.03314294364685497</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02079548425770064</v>
+        <v>0.02182102973150406</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.05163700297613335</v>
+        <v>0.05335700492797908</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>56</v>
@@ -10620,19 +10620,19 @@
         <v>47654</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>36263</v>
+        <v>34721</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>62596</v>
+        <v>61563</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.04590625308877513</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.03493309076087753</v>
+        <v>0.03344792023911144</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.06030042901416797</v>
+        <v>0.05930571104166403</v>
       </c>
     </row>
     <row r="7">
@@ -10649,19 +10649,19 @@
         <v>8237</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3873</v>
+        <v>4015</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>15413</v>
+        <v>15595</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01498490072436037</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.007045736974296809</v>
+        <v>0.007303824304507797</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0280413228848398</v>
+        <v>0.02837295608857015</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>13</v>
@@ -10670,19 +10670,19 @@
         <v>8299</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4607</v>
+        <v>4490</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>13828</v>
+        <v>13997</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01699247543035682</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.009432861761184746</v>
+        <v>0.00919391429022621</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02831153251259283</v>
+        <v>0.02865907129011613</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>22</v>
@@ -10691,19 +10691,19 @@
         <v>16536</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>10081</v>
+        <v>10654</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>24904</v>
+        <v>24651</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01592946447010738</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.009711224343371535</v>
+        <v>0.01026324505330239</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02399045405476319</v>
+        <v>0.02374733588189599</v>
       </c>
     </row>
     <row r="8">
@@ -10720,19 +10720,19 @@
         <v>6235</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2146</v>
+        <v>2272</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>13393</v>
+        <v>13403</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01134320962462749</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.003904022634323356</v>
+        <v>0.004134143982468121</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02436527344194505</v>
+        <v>0.02438403075105872</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>7</v>
@@ -10741,19 +10741,19 @@
         <v>5945</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2299</v>
+        <v>2361</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>15248</v>
+        <v>15702</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.0121714957106592</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.004706846912525178</v>
+        <v>0.004833817147665674</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.03122041651761279</v>
+        <v>0.03214964872247694</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>13</v>
@@ -10762,19 +10762,19 @@
         <v>12180</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>6438</v>
+        <v>6675</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>23767</v>
+        <v>22555</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01173291816480553</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.006201955400044565</v>
+        <v>0.006429981778559898</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02289522468762625</v>
+        <v>0.02172760974835769</v>
       </c>
     </row>
     <row r="9">
@@ -10866,19 +10866,19 @@
         <v>270068</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>248556</v>
+        <v>245139</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>294179</v>
+        <v>292114</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5589023287098254</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5143828200730668</v>
+        <v>0.5073105255669798</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6087982197206521</v>
+        <v>0.6045248437012074</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>355</v>
@@ -10887,19 +10887,19 @@
         <v>258275</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>239800</v>
+        <v>240126</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>275962</v>
+        <v>275824</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.6103720241321351</v>
+        <v>0.610372024132135</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5667123962250873</v>
+        <v>0.5674811115639703</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.65217265758577</v>
+        <v>0.6518464818918963</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>615</v>
@@ -10908,19 +10908,19 @@
         <v>528343</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>500046</v>
+        <v>499978</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>557147</v>
+        <v>557160</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5829315819237848</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5517109560557829</v>
+        <v>0.5516361372611587</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6147118680941549</v>
+        <v>0.6147261699957846</v>
       </c>
     </row>
     <row r="11">
@@ -10937,19 +10937,19 @@
         <v>173234</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>150855</v>
+        <v>152594</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>194841</v>
+        <v>196888</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3585060140724335</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.312193102936337</v>
+        <v>0.3157906590336342</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4032201626741825</v>
+        <v>0.4074567443877535</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>187</v>
@@ -10958,19 +10958,19 @@
         <v>130405</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>115300</v>
+        <v>114159</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>147944</v>
+        <v>147587</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3081816244779493</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2724845357383577</v>
+        <v>0.2697893344967305</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3496309728243729</v>
+        <v>0.3487871823827245</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>365</v>
@@ -10979,19 +10979,19 @@
         <v>303639</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>278057</v>
+        <v>278128</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>335142</v>
+        <v>332988</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3350114608118823</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3067858452943766</v>
+        <v>0.3068638918149463</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3697689727540195</v>
+        <v>0.3673928396663871</v>
       </c>
     </row>
     <row r="12">
@@ -11008,19 +11008,19 @@
         <v>24608</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>16112</v>
+        <v>15880</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>35706</v>
+        <v>34572</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.05092501976666711</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.03334448340246623</v>
+        <v>0.03286412487646014</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.07389340156563878</v>
+        <v>0.07154523056842527</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>26</v>
@@ -11029,19 +11029,19 @@
         <v>20215</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>13282</v>
+        <v>13758</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>29978</v>
+        <v>29907</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04777360713384956</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.031388894015445</v>
+        <v>0.03251374696083569</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.0708469676809272</v>
+        <v>0.07067917287416059</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>52</v>
@@ -11050,19 +11050,19 @@
         <v>44823</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>33569</v>
+        <v>34146</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>58613</v>
+        <v>58401</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.04945374445574269</v>
+        <v>0.0494537444557427</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03703719460694424</v>
+        <v>0.03767365489321973</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.06466877420233205</v>
+        <v>0.0644352376787416</v>
       </c>
     </row>
     <row r="13">
@@ -11079,19 +11079,19 @@
         <v>13368</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7839</v>
+        <v>7887</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>21260</v>
+        <v>21772</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02766438808477092</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01622331815746654</v>
+        <v>0.01632172885948835</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04399696185885607</v>
+        <v>0.04505729663372461</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>19</v>
@@ -11100,19 +11100,19 @@
         <v>12212</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>7511</v>
+        <v>7664</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>18948</v>
+        <v>19172</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02886031794149223</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01775067704573165</v>
+        <v>0.01811229931535932</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04477977348302995</v>
+        <v>0.04530927292132015</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>34</v>
@@ -11121,19 +11121,19 @@
         <v>25580</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>17443</v>
+        <v>17057</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>35387</v>
+        <v>36153</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0282227224816913</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01924564878291482</v>
+        <v>0.0188189300610138</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03904311127261946</v>
+        <v>0.03988872641807166</v>
       </c>
     </row>
     <row r="14">
@@ -11153,16 +11153,16 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>7270</v>
+        <v>8771</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.004002249366303057</v>
+        <v>0.004002249366303056</v>
       </c>
       <c r="H14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01504506426584347</v>
+        <v>0.01815100533397931</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3</v>
@@ -11171,19 +11171,19 @@
         <v>2036</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>5248</v>
+        <v>6031</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.004812426314573743</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.001530856005874566</v>
+        <v>0.001529566072205573</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01240218509209296</v>
+        <v>0.01425342360335767</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5</v>
@@ -11192,19 +11192,19 @@
         <v>3970</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1314</v>
+        <v>1328</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>9746</v>
+        <v>9309</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.004380490326898886</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.001449944453020581</v>
+        <v>0.001465396279518175</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01075326246077629</v>
+        <v>0.01027071095825468</v>
       </c>
     </row>
     <row r="15">
@@ -11296,19 +11296,19 @@
         <v>281090</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>259457</v>
+        <v>260786</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>301630</v>
+        <v>302263</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.5960200892284815</v>
+        <v>0.5960200892284813</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5501500206212514</v>
+        <v>0.5529670705743287</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6395723847893046</v>
+        <v>0.6409147694269574</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>168</v>
@@ -11317,19 +11317,19 @@
         <v>113532</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>102791</v>
+        <v>102253</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>124372</v>
+        <v>124774</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6055149893904594</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5482251984113032</v>
+        <v>0.5453581642000098</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6633300968842851</v>
+        <v>0.6654726671975023</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>445</v>
@@ -11338,19 +11338,19 @@
         <v>394622</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>370765</v>
+        <v>369873</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>418187</v>
+        <v>418668</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5987211113678812</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.562524396464034</v>
+        <v>0.5611707773807723</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6344731317100691</v>
+        <v>0.6352034432727007</v>
       </c>
     </row>
     <row r="17">
@@ -11367,19 +11367,19 @@
         <v>150807</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>131074</v>
+        <v>129359</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>171947</v>
+        <v>171491</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.319770165498725</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2779280646543444</v>
+        <v>0.2742918630777284</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3645937753039797</v>
+        <v>0.3636263003140431</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>93</v>
@@ -11388,19 +11388,19 @@
         <v>56312</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>46219</v>
+        <v>46259</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>66492</v>
+        <v>66310</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3003350492000006</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2465055073271992</v>
+        <v>0.246719337094003</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3546285593019836</v>
+        <v>0.3536609072431269</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>254</v>
@@ -11409,19 +11409,19 @@
         <v>207119</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>185501</v>
+        <v>185663</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>231609</v>
+        <v>230803</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3142414418145227</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2814425955254088</v>
+        <v>0.2816877262996355</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3513972400478592</v>
+        <v>0.3501744984257412</v>
       </c>
     </row>
     <row r="18">
@@ -11438,19 +11438,19 @@
         <v>24686</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>15978</v>
+        <v>16490</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>34684</v>
+        <v>34229</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.05234340187869399</v>
+        <v>0.05234340187869398</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03387920443851296</v>
+        <v>0.03496560403946032</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.07354361204156835</v>
+        <v>0.07257867234433465</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>13</v>
@@ -11459,19 +11459,19 @@
         <v>8206</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>4374</v>
+        <v>4454</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>14003</v>
+        <v>14489</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.04376450205951821</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.0233288385729587</v>
+        <v>0.02375344619943963</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.0746815976152671</v>
+        <v>0.07727787945728531</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>44</v>
@@ -11480,19 +11480,19 @@
         <v>32891</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>23524</v>
+        <v>23991</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>43083</v>
+        <v>43945</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.04990295511801324</v>
+        <v>0.04990295511801323</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.03569025691693642</v>
+        <v>0.03639915025074405</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.0653658591884448</v>
+        <v>0.06667333996961437</v>
       </c>
     </row>
     <row r="19">
@@ -11509,19 +11509,19 @@
         <v>10578</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>6094</v>
+        <v>5841</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>17481</v>
+        <v>17414</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.02242996276052865</v>
+        <v>0.02242996276052864</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01292236732218355</v>
+        <v>0.01238525018930864</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03706738423308888</v>
+        <v>0.03692386891802733</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>13</v>
@@ -11530,19 +11530,19 @@
         <v>7692</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>4107</v>
+        <v>4139</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>12994</v>
+        <v>12992</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04102528037776304</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02190626351414796</v>
+        <v>0.02207686891420123</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06930261597286513</v>
+        <v>0.06929367274953806</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>27</v>
@@ -11551,19 +11551,19 @@
         <v>18270</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>12229</v>
+        <v>12018</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>26526</v>
+        <v>25771</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02771978821592944</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01855398974204705</v>
+        <v>0.01823332120423734</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04024509725620001</v>
+        <v>0.0390995530672973</v>
       </c>
     </row>
     <row r="20">
@@ -11580,19 +11580,19 @@
         <v>4450</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1438</v>
+        <v>1751</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>9702</v>
+        <v>9481</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.009436380633570978</v>
+        <v>0.00943638063357098</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.003048692356911925</v>
+        <v>0.003712771956249412</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02057151306910198</v>
+        <v>0.02010312895697987</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2</v>
@@ -11604,7 +11604,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>6321</v>
+        <v>6696</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.009360178972258574</v>
@@ -11613,7 +11613,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.0337150652455104</v>
+        <v>0.035713817206153</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>7</v>
@@ -11622,19 +11622,19 @@
         <v>6205</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2679</v>
+        <v>2874</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>12836</v>
+        <v>12061</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.009414703483653379</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.004064297150690237</v>
+        <v>0.004360037374234287</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01947542024379362</v>
+        <v>0.01829929750896888</v>
       </c>
     </row>
     <row r="21">
@@ -11726,19 +11726,19 @@
         <v>622334</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>583760</v>
+        <v>586354</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>653508</v>
+        <v>656728</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5502369202883413</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.516132206813642</v>
+        <v>0.5184250160115365</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5777995847356728</v>
+        <v>0.5806468885121345</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>679</v>
@@ -11747,19 +11747,19 @@
         <v>497765</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>471837</v>
+        <v>473863</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>520840</v>
+        <v>524382</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.5783602569362742</v>
+        <v>0.578360256936274</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5482335543768377</v>
+        <v>0.5505882254064597</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6051716906951746</v>
+        <v>0.6092865119019079</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1258</v>
@@ -11768,19 +11768,19 @@
         <v>1120099</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1079911</v>
+        <v>1073701</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1169953</v>
+        <v>1161263</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5623896483031362</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5422116953106312</v>
+        <v>0.5390938438040636</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5874209886436701</v>
+        <v>0.5830576404416868</v>
       </c>
     </row>
     <row r="23">
@@ -11797,19 +11797,19 @@
         <v>373214</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>340757</v>
+        <v>338031</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>407559</v>
+        <v>408256</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.329977663806752</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3012807240426815</v>
+        <v>0.298870171456153</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3603433444616564</v>
+        <v>0.3609596366786865</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>412</v>
@@ -11818,19 +11818,19 @@
         <v>273171</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>251413</v>
+        <v>249579</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>297200</v>
+        <v>297019</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.3174013801892778</v>
+        <v>0.3174013801892777</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.292120675944853</v>
+        <v>0.2899893055042094</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3453211699176616</v>
+        <v>0.3451103888107288</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>802</v>
@@ -11839,19 +11839,19 @@
         <v>646385</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>605210</v>
+        <v>607747</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>688189</v>
+        <v>688735</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3245431680300455</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3038692536145578</v>
+        <v>0.3051430517274712</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3455320383144996</v>
+        <v>0.3458062304096035</v>
       </c>
     </row>
     <row r="24">
@@ -11868,19 +11868,19 @@
         <v>94033</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>78488</v>
+        <v>76395</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>115659</v>
+        <v>114400</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.08313973189651529</v>
+        <v>0.0831397318965153</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0693951526249181</v>
+        <v>0.06754427236508742</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1022602370577732</v>
+        <v>0.1011467268991365</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>81</v>
@@ -11889,19 +11889,19 @@
         <v>51012</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>39623</v>
+        <v>40210</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>62317</v>
+        <v>63915</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.05927147159522388</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.0460379605411439</v>
+        <v>0.04672091292748807</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.07240648649441776</v>
+        <v>0.07426332904315214</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>181</v>
@@ -11910,19 +11910,19 @@
         <v>145045</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>123712</v>
+        <v>125237</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>167426</v>
+        <v>169776</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.07282571833336134</v>
+        <v>0.07282571833336135</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.06211457008858932</v>
+        <v>0.06287998020932409</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.08406261541505533</v>
+        <v>0.08524268796110503</v>
       </c>
     </row>
     <row r="25">
@@ -11939,19 +11939,19 @@
         <v>32613</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>23063</v>
+        <v>23984</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>44668</v>
+        <v>45562</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02883470189638756</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02039087571306957</v>
+        <v>0.02120567696234815</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03949351357749214</v>
+        <v>0.04028340932228833</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>49</v>
@@ -11960,19 +11960,19 @@
         <v>32428</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>23646</v>
+        <v>24646</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>42680</v>
+        <v>43021</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03767811656463316</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02747410582720376</v>
+        <v>0.02863601313580607</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04959097311001918</v>
+        <v>0.04998676780036024</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>86</v>
@@ -11981,19 +11981,19 @@
         <v>65041</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>51595</v>
+        <v>51395</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>81222</v>
+        <v>79979</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03265614081491421</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02590525931056353</v>
+        <v>0.02580486416150683</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04078081748550482</v>
+        <v>0.04015661188603895</v>
       </c>
     </row>
     <row r="26">
@@ -12010,19 +12010,19 @@
         <v>8834</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>4115</v>
+        <v>4615</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>15134</v>
+        <v>15897</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.007810982112003914</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.003638366360134426</v>
+        <v>0.004080474006983716</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01338048313789722</v>
+        <v>0.01405549418974574</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>8</v>
@@ -12031,19 +12031,19 @@
         <v>6273</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3016</v>
+        <v>2775</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>13421</v>
+        <v>12412</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.007288774714591124</v>
+        <v>0.007288774714591125</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.003503959368360879</v>
+        <v>0.003223845308148856</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01559438728109953</v>
+        <v>0.01442206494258833</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>19</v>
@@ -12052,19 +12052,19 @@
         <v>15108</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>9166</v>
+        <v>9097</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>23910</v>
+        <v>23538</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.007585324518542716</v>
+        <v>0.007585324518542717</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.004602101779996925</v>
+        <v>0.004567463902454653</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01200479757472529</v>
+        <v>0.01181835515414229</v>
       </c>
     </row>
     <row r="27">
@@ -12156,19 +12156,19 @@
         <v>259390</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>234878</v>
+        <v>233798</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>286423</v>
+        <v>286838</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.459517476027361</v>
+        <v>0.4595174760273611</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4160945472688156</v>
+        <v>0.4141815544245653</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5074077780300468</v>
+        <v>0.5081424916828067</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>620</v>
@@ -12177,19 +12177,19 @@
         <v>412563</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>392177</v>
+        <v>388018</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>438756</v>
+        <v>436420</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.4980315509912215</v>
+        <v>0.4980315509912214</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.4734228892359618</v>
+        <v>0.4684021247442896</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5296503938216985</v>
+        <v>0.5268314838791278</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>859</v>
@@ -12198,19 +12198,19 @@
         <v>671953</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>636109</v>
+        <v>636947</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>705248</v>
+        <v>709007</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.482423098704951</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.4566891374971606</v>
+        <v>0.4572913816829073</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5063274378806107</v>
+        <v>0.5090262399270234</v>
       </c>
     </row>
     <row r="29">
@@ -12227,19 +12227,19 @@
         <v>183406</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>160870</v>
+        <v>158367</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>210071</v>
+        <v>206867</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.3249092501056555</v>
+        <v>0.3249092501056556</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2849855667573076</v>
+        <v>0.2805527170902419</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3721481002324908</v>
+        <v>0.3664721956907024</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>425</v>
@@ -12248,19 +12248,19 @@
         <v>262271</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>238140</v>
+        <v>239545</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>283608</v>
+        <v>286856</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.3166041190715714</v>
+        <v>0.3166041190715713</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2874741936179855</v>
+        <v>0.2891707485107882</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3423611624279493</v>
+        <v>0.3462829264233495</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>605</v>
@@ -12269,19 +12269,19 @@
         <v>445676</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>410748</v>
+        <v>413534</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>477755</v>
+        <v>478432</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.3199699078539415</v>
+        <v>0.3199699078539416</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2948932734652496</v>
+        <v>0.2968935347495986</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3430004472543206</v>
+        <v>0.3434865163228709</v>
       </c>
     </row>
     <row r="30">
@@ -12298,19 +12298,19 @@
         <v>67066</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>53126</v>
+        <v>52993</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>83826</v>
+        <v>86306</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.1188100883187488</v>
+        <v>0.1188100883187489</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.09411494098110024</v>
+        <v>0.09387869992536668</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1484996666004703</v>
+        <v>0.1528939548624252</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>148</v>
@@ -12319,19 +12319,19 @@
         <v>91527</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>78411</v>
+        <v>76897</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>107546</v>
+        <v>105610</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1104879691422002</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.09465495635101069</v>
+        <v>0.09282724109414205</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1298255088461919</v>
+        <v>0.1274883849068515</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>218</v>
@@ -12340,19 +12340,19 @@
         <v>158593</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>138368</v>
+        <v>138674</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>181490</v>
+        <v>179848</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1138606426442823</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.09934036921573013</v>
+        <v>0.09956002143278063</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1302989762606511</v>
+        <v>0.1291205068402967</v>
       </c>
     </row>
     <row r="31">
@@ -12369,19 +12369,19 @@
         <v>45126</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>31996</v>
+        <v>33185</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>64108</v>
+        <v>66061</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.07994157554790238</v>
+        <v>0.07994157554790239</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.05668140027862485</v>
+        <v>0.05878903726175196</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1135685801048386</v>
+        <v>0.1170287647556916</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>71</v>
@@ -12390,19 +12390,19 @@
         <v>49004</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>38172</v>
+        <v>38985</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>63348</v>
+        <v>62205</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.05915557498366532</v>
+        <v>0.0591555749836653</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.04607951528446355</v>
+        <v>0.04706077701037786</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.07647118954332179</v>
+        <v>0.07509171471263987</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>114</v>
@@ -12411,19 +12411,19 @@
         <v>94129</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>76733</v>
+        <v>77800</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>115657</v>
+        <v>116393</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.06757943816443029</v>
+        <v>0.06757943816443028</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.05509001456661253</v>
+        <v>0.05585612142908265</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.08303523224868772</v>
+        <v>0.0835635096027975</v>
       </c>
     </row>
     <row r="32">
@@ -12440,19 +12440,19 @@
         <v>9496</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>4784</v>
+        <v>4975</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>16435</v>
+        <v>16252</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.0168216100003323</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.008475583591986734</v>
+        <v>0.008813459936436188</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02911524286844188</v>
+        <v>0.02879108512609968</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>22</v>
@@ -12461,19 +12461,19 @@
         <v>13023</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>8551</v>
+        <v>8415</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>20362</v>
+        <v>20032</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01572078581134174</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.0103223046273724</v>
+        <v>0.01015813732258385</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.0245797121328664</v>
+        <v>0.02418146031851658</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>34</v>
@@ -12482,19 +12482,19 @@
         <v>22518</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>15487</v>
+        <v>15697</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>31031</v>
+        <v>31523</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01616691263239494</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01111896395928412</v>
+        <v>0.01126918288475005</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02227878058992593</v>
+        <v>0.02263187155468586</v>
       </c>
     </row>
     <row r="33">
@@ -12586,19 +12586,19 @@
         <v>177576</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>153098</v>
+        <v>154640</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>194958</v>
+        <v>195277</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.7485444524949828</v>
+        <v>0.7485444524949827</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.6453622299024165</v>
+        <v>0.6518626102927414</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.8218190709783341</v>
+        <v>0.8231627992525087</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>569</v>
@@ -12607,19 +12607,19 @@
         <v>439887</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>414355</v>
+        <v>411692</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>470471</v>
+        <v>466822</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.5231086631483375</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.4927459383087878</v>
+        <v>0.489579239797485</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.5594784085028356</v>
+        <v>0.555138707249866</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>645</v>
@@ -12628,19 +12628,19 @@
         <v>617463</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>579728</v>
+        <v>576746</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>652943</v>
+        <v>652418</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.5727123475705956</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.5377117798599252</v>
+        <v>0.5349467584148514</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.6056208953848421</v>
+        <v>0.6051339210170755</v>
       </c>
     </row>
     <row r="35">
@@ -12657,19 +12657,19 @@
         <v>49128</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>32200</v>
+        <v>34093</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>71073</v>
+        <v>72300</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2070934072882364</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1357344570751628</v>
+        <v>0.143715855724297</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2995991023579178</v>
+        <v>0.3047685806071932</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>413</v>
@@ -12678,19 +12678,19 @@
         <v>285328</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>261228</v>
+        <v>259480</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>310406</v>
+        <v>313897</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.3393083234277257</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.3106486361988322</v>
+        <v>0.3085704886011345</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3691307814010404</v>
+        <v>0.3732823715413325</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>440</v>
@@ -12699,19 +12699,19 @@
         <v>334456</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>301847</v>
+        <v>301074</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>366654</v>
+        <v>370952</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.3102164609727631</v>
+        <v>0.310216460972763</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2799709532017683</v>
+        <v>0.279253358020839</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3400811156293213</v>
+        <v>0.3440673920504433</v>
       </c>
     </row>
     <row r="36">
@@ -12728,19 +12728,19 @@
         <v>5996</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1600</v>
+        <v>1646</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>15426</v>
+        <v>16009</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.02527479414118144</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.006743401615260657</v>
+        <v>0.006936427117627197</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.06502648107988016</v>
+        <v>0.06748281990370816</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>115</v>
@@ -12749,19 +12749,19 @@
         <v>82588</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>68472</v>
+        <v>66974</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>100860</v>
+        <v>101627</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.09821293437672733</v>
+        <v>0.09821293437672732</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.08142579543441834</v>
+        <v>0.0796443341826002</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1199410044520134</v>
+        <v>0.120853444351873</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>119</v>
@@ -12770,19 +12770,19 @@
         <v>88584</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>70748</v>
+        <v>72365</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>109590</v>
+        <v>110032</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.08216401640733102</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.06562035911238666</v>
+        <v>0.06712065392587042</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1016475402977231</v>
+        <v>0.1020572946467767</v>
       </c>
     </row>
     <row r="37">
@@ -12799,19 +12799,19 @@
         <v>2885</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>846</v>
+        <v>863</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>8261</v>
+        <v>7523</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.01216224424119775</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.003565141323945229</v>
+        <v>0.003638427097965953</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.03482471059586969</v>
+        <v>0.03171198250799308</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>47</v>
@@ -12820,19 +12820,19 @@
         <v>27276</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>19869</v>
+        <v>19816</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>36341</v>
+        <v>36141</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.03243570412979623</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.02362835182750702</v>
+        <v>0.02356523117493469</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.04321625054481903</v>
+        <v>0.04297881235466405</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>51</v>
@@ -12841,19 +12841,19 @@
         <v>30161</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>23077</v>
+        <v>22457</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>39963</v>
+        <v>38732</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.02797484053144802</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.0214045851035325</v>
+        <v>0.02082926259287169</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.03706643174283827</v>
+        <v>0.035924686510643</v>
       </c>
     </row>
     <row r="38">
@@ -12873,7 +12873,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>7215</v>
+        <v>8519</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.006925101834401702</v>
@@ -12882,7 +12882,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.03041369397968874</v>
+        <v>0.03591018192857028</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>10</v>
@@ -12891,19 +12891,19 @@
         <v>5831</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>2949</v>
+        <v>2799</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>10930</v>
+        <v>10385</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>0.006934374917413251</v>
+        <v>0.006934374917413252</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.00350672828854167</v>
+        <v>0.003328264262230508</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.01299794301297382</v>
+        <v>0.01234921470769408</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>11</v>
@@ -12912,19 +12912,19 @@
         <v>7474</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>3932</v>
+        <v>3413</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>15345</v>
+        <v>14023</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.006932334517862412</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.003647426811698255</v>
+        <v>0.003165486035712458</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.01423261814970538</v>
+        <v>0.01300685338437995</v>
       </c>
     </row>
     <row r="39">
@@ -13016,19 +13016,19 @@
         <v>1970505</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1910886</v>
+        <v>1910487</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>2033557</v>
+        <v>2036476</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>0.5732844497176992</v>
+        <v>0.5732844497176993</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.5559392711204814</v>
+        <v>0.5558232549662545</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.591628291053113</v>
+        <v>0.592477776625624</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>2874</v>
@@ -13037,19 +13037,19 @@
         <v>2068186</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>2012243</v>
+        <v>2018532</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>2114704</v>
+        <v>2120230</v>
       </c>
       <c r="N40" s="6" t="n">
-        <v>0.5699057497888934</v>
+        <v>0.5699057497888933</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.5544901890689927</v>
+        <v>0.5562229895815751</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.5827242252159135</v>
+        <v>0.5842468836135895</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>4652</v>
@@ -13058,19 +13058,19 @@
         <v>4038691</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>3961503</v>
+        <v>3957076</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>4122530</v>
+        <v>4121851</v>
       </c>
       <c r="U40" s="6" t="n">
-        <v>0.5715492509540624</v>
+        <v>0.5715492509540623</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.5606257697081021</v>
+        <v>0.5599991819586102</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.5834139609633407</v>
+        <v>0.583317869738911</v>
       </c>
     </row>
     <row r="41">
@@ -13087,19 +13087,19 @@
         <v>1073462</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1020433</v>
+        <v>1013868</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>1135640</v>
+        <v>1125542</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>0.3123051942912024</v>
+        <v>0.3123051942912023</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2968774601724668</v>
+        <v>0.2949674077541798</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.3303948221503174</v>
+        <v>0.3274571270735983</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>1690</v>
@@ -13108,19 +13108,19 @@
         <v>1119302</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>1070300</v>
+        <v>1069239</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>1171253</v>
+        <v>1164573</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.3084329055674968</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.2949298393534433</v>
+        <v>0.2946376392933758</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.3227483700675381</v>
+        <v>0.3209076598725918</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>2784</v>
@@ -13129,19 +13129,19 @@
         <v>2192764</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>2117823</v>
+        <v>2114890</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>2262420</v>
+        <v>2262836</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.3103165031533676</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.2997110216620844</v>
+        <v>0.2992958698947378</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.3201740990537009</v>
+        <v>0.3202330570533323</v>
       </c>
     </row>
     <row r="42">
@@ -13158,19 +13158,19 @@
         <v>247855</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>217082</v>
+        <v>218219</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>278133</v>
+        <v>279130</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>0.0721092494400606</v>
+        <v>0.07210924944006061</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.06315634293849488</v>
+        <v>0.06348697385439314</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.08091811203608253</v>
+        <v>0.081208023582066</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>406</v>
@@ -13179,19 +13179,19 @@
         <v>269735</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>243769</v>
+        <v>244786</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>299383</v>
+        <v>297332</v>
       </c>
       <c r="N42" s="6" t="n">
-        <v>0.07432773688670964</v>
+        <v>0.07432773688670963</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.06717262540822352</v>
+        <v>0.06745277693255457</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.08249755716654786</v>
+        <v>0.08193216021105007</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>670</v>
@@ -13200,19 +13200,19 @@
         <v>517590</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>479990</v>
+        <v>474572</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>562080</v>
+        <v>558116</v>
       </c>
       <c r="U42" s="6" t="n">
-        <v>0.07324859793376656</v>
+        <v>0.07324859793376655</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.06792749869660968</v>
+        <v>0.06716065612353574</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.07954468391453791</v>
+        <v>0.07898371207260314</v>
       </c>
     </row>
     <row r="43">
@@ -13229,19 +13229,19 @@
         <v>112806</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>91331</v>
+        <v>92273</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>136315</v>
+        <v>138144</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.03281905427517344</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.02657118115783579</v>
+        <v>0.02684529594337537</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.03965863757768413</v>
+        <v>0.04019075972215982</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>212</v>
@@ -13250,19 +13250,19 @@
         <v>136910</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>118667</v>
+        <v>120224</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>156042</v>
+        <v>157070</v>
       </c>
       <c r="N43" s="6" t="n">
-        <v>0.03772676656003475</v>
+        <v>0.03772676656003474</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.03269967268558496</v>
+        <v>0.0331287314367698</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.04299866241567486</v>
+        <v>0.04328199579341391</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>334</v>
@@ -13271,19 +13271,19 @@
         <v>249717</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>221646</v>
+        <v>223477</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>281211</v>
+        <v>279392</v>
       </c>
       <c r="U43" s="6" t="n">
-        <v>0.03533950784264569</v>
+        <v>0.03533950784264568</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.03136694779411235</v>
+        <v>0.03162617899072718</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.03979651074892676</v>
+        <v>0.03953909026218245</v>
       </c>
     </row>
     <row r="44">
@@ -13300,19 +13300,19 @@
         <v>32592</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>22801</v>
+        <v>23597</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>44049</v>
+        <v>45187</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.009482052275864345</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.006633526543263071</v>
+        <v>0.006865212491374842</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.01281517664553084</v>
+        <v>0.01314643953805526</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>52</v>
@@ -13321,19 +13321,19 @@
         <v>34863</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>26160</v>
+        <v>25839</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>47931</v>
+        <v>47420</v>
       </c>
       <c r="N44" s="6" t="n">
-        <v>0.009606841196865583</v>
+        <v>0.009606841196865581</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.007208474794912104</v>
+        <v>0.007120091721725175</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.01320779875172953</v>
+        <v>0.01306691165902075</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>89</v>
@@ -13342,19 +13342,19 @@
         <v>67455</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>54247</v>
+        <v>53168</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>82842</v>
+        <v>83425</v>
       </c>
       <c r="U44" s="6" t="n">
-        <v>0.009546140116157833</v>
+        <v>0.00954614011615783</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.007676886609586647</v>
+        <v>0.007524316024222722</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.01172373334660671</v>
+        <v>0.01180613106918755</v>
       </c>
     </row>
     <row r="45">
